--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -572,7 +572,7 @@
         <v>43418</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43483</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44375</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44930</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43418</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43418</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44881</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43376</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>43419</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43766</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>44452</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44970</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43326</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>43343</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43348</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>43369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>43376</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43387</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43391</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43395</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43415</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43418</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43418</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43419</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43426</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43442</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43442</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43442</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43446</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43451</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43493</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43497</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43502</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43504</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>43517</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>43523</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43524</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43535</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43539</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43542</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>43550</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>43551</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43551</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43552</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43554</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43559</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43560</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43563</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43570</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43570</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43572</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43572</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>43572</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43573</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43580</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43584</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43584</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43588</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43588</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43589</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43589</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43600</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43609</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43668</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43671</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43683</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43685</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43685</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43685</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43688</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43688</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43690</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43690</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43691</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43692</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43703</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43705</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43713</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43717</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43717</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43718</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43718</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43724</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43725</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43725</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43725</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43747</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43763</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43763</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43766</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43766</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43768</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43768</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43768</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43769</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>43770</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>43770</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>43770</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>43770</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43772</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43774</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43777</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43784</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43784</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43787</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43789</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43790</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43794</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43795</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43795</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43810</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43811</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43811</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43811</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43819</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43819</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43826</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>43826</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>43833</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>43838</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>43840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43840</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>43843</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>43843</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43843</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43844</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43844</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43850</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>43857</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>43872</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>43872</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>43872</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43885</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>43888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>43896</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>43906</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43907</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43907</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>43907</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>43908</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>43914</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>43921</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>43921</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>43924</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43949</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>43949</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>43977</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43985</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>43993</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43997</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>43999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44004</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44008</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44019</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44020</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44021</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44025</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44030</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44030</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44040</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44041</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44042</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44042</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44047</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44048</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44050</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44054</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44056</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>44057</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>44062</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>44064</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44067</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>44067</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44069</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44077</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44099</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44109</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44110</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44110</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44131</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44131</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44133</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44133</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44137</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44144</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44144</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>44148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>44151</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44162</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44166</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44179</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44182</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44182</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44201</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44207</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44207</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44212</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44217</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44223</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44224</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44225</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44235</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44236</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44244</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44244</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44244</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44249</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44257</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44258</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44258</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44264</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44271</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44278</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44281</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44286</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44286</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44288</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44288</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44290</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44320</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44329</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44342</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44356</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44357</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44357</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44357</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44369</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44369</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44369</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44375</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44375</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44375</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44376</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44377</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44377</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44382</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44383</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44403</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44404</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44410</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44412</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44412</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44413</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44421</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44426</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44426</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44427</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44432</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44435</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44438</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44439</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44442</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44445</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44445</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44452</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44461</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44463</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44467</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44469</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44470</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44476</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44476</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44482</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44483</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>44494</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>44494</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44505</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44515</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44515</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44517</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44517</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44529</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44529</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44529</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44532</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44543</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44546</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44551</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44557</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>44560</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44564</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44566</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44573</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>44581</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>44588</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44588</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>44608</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44610</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44614</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44619</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44625</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44627</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44629</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>44636</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44636</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>44636</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44655</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44659</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44662</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44670</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44677</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44678</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44683</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44685</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44692</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44692</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44700</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44705</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44712</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44722</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44740</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44740</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44746</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44746</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44774</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44776</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>44776</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>44781</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>44786</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>44798</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>44799</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>44799</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>44799</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44804</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44806</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44809</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44810</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44816</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44817</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44820</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>44839</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44840</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>44853</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>44865</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>44865</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44867</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44879</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44881</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44881</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>44881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>44881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44883</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>44883</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44883</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>44896</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>44896</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28510,7 +28510,7 @@
         <v>44896</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44899</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44900</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         <v>44901</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28738,7 +28738,7 @@
         <v>44904</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28795,7 +28795,7 @@
         <v>44904</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>44908</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44910</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44916</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44918</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44918</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44925</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44937</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44939</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44951</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44956</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44966</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44966</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44966</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44966</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44966</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44970</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44979</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44980</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44980</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44986</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44998</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>45000</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>45008</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>45016</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>45022</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>45029</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>45029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>45036</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>45040</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>45040</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>45041</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31162,7 +31162,7 @@
         <v>45041</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31219,7 +31219,7 @@
         <v>45041</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31276,7 +31276,7 @@
         <v>45041</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31333,7 +31333,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31390,7 +31390,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>45050</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>45054</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>45054</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>45054</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>45054</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>45069</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>45070</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>45071</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>45071</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>45071</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>45071</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>45083</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>45084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>45084</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>45084</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32535,7 +32535,7 @@
         <v>45084</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>45085</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>45085</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>45090</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>45090</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>45090</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>45090</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>45091</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>45091</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>45093</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>45104</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>45105</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>45106</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>45107</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33390,7 +33390,7 @@
         <v>45107</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>45128</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33504,7 +33504,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33561,7 +33561,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33618,7 +33618,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33675,7 +33675,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33732,7 +33732,7 @@
         <v>45142</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33789,7 +33789,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33846,7 +33846,7 @@
         <v>45145</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>45149</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45152</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45152</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45155</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45161</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45162</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45167</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -572,7 +572,7 @@
         <v>43418</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43483</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44375</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44930</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43418</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43418</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44881</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43376</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>43419</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43766</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>44452</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44970</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43326</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>43343</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43348</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>43369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>43376</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43387</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43391</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43395</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43415</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43418</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43418</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43419</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43426</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43442</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43442</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43442</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43446</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43451</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43493</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43497</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43502</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43504</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>43517</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>43523</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43524</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43535</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43539</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43542</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>43550</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>43551</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43551</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43552</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43554</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43559</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43560</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43563</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43570</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43570</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43572</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43572</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>43572</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43573</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43580</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43584</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43584</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43588</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43588</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43589</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43589</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43600</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43609</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43668</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43671</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43683</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43685</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43685</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43685</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43688</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43688</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43690</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43690</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43691</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43692</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43703</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43705</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43713</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43717</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43717</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43718</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43718</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43724</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43725</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43725</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43725</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43747</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43763</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43763</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43766</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43766</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43768</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43768</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43768</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43769</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>43770</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>43770</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>43770</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>43770</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43772</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43774</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43777</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43784</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43784</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43787</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43789</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43790</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43794</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43795</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43795</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43810</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43811</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43811</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43811</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43819</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43819</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43826</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>43826</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>43833</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>43838</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>43840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43840</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>43843</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>43843</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43843</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43844</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43844</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43850</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>43857</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>43872</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>43872</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>43872</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43885</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>43888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>43896</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>43906</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43907</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43907</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>43907</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>43908</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>43914</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>43921</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>43921</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>43924</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43949</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>43949</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>43977</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43985</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>43993</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43997</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>43999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44004</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44008</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44019</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44020</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44021</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44025</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44030</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44030</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44040</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44041</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44042</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44042</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44047</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44048</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44050</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44054</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44056</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>44057</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>44062</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>44064</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44067</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>44067</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44069</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44077</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44099</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44109</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44110</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44110</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44131</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44131</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44133</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44133</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44137</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44144</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44144</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>44148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>44151</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44162</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44166</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44179</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44182</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44182</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44201</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44207</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44207</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44212</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44217</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44223</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44224</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44225</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44235</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44236</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44244</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44244</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44244</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44249</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44257</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44258</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44258</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44264</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44271</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44278</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44281</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44286</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44286</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44288</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44288</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44290</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44320</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44329</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44342</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44356</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44357</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44357</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44357</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44369</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44369</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44369</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44375</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44375</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44375</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44376</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44377</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44377</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44382</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44383</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44403</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44404</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44410</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44412</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44412</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44413</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44421</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44426</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44426</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44427</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44432</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44435</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44438</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44439</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44442</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44445</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44445</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44452</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44461</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44463</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44467</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44469</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44470</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44476</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44476</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44482</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44483</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>44494</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>44494</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44505</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44515</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44515</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44517</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44517</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44529</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44529</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44529</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44532</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44543</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44546</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44551</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44557</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>44560</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44564</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44566</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44573</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>44581</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>44588</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44588</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>44608</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44610</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44614</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44619</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44625</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44627</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44629</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>44636</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44636</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>44636</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44655</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44659</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44662</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44670</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44677</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44678</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44683</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44685</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44692</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44692</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44700</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44705</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44712</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44722</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44740</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44740</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44746</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44746</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44774</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44776</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>44776</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>44781</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>44786</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>44798</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>44799</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>44799</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>44799</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44804</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44806</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44809</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44810</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44816</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44817</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44820</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>44839</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44840</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>44853</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>44865</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>44865</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44867</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44879</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44881</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44881</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>44881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>44881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44883</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>44883</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44883</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>44896</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>44896</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28510,7 +28510,7 @@
         <v>44896</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44899</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44900</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         <v>44901</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28738,7 +28738,7 @@
         <v>44904</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28795,7 +28795,7 @@
         <v>44904</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>44908</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44910</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44916</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44918</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44918</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44925</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44937</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44939</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44951</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44956</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44966</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44966</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44966</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44966</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44966</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44970</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44979</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44980</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44980</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44986</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44998</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>45000</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>45008</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>45016</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>45022</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>45029</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>45029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>45036</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>45040</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>45040</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>45041</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31162,7 +31162,7 @@
         <v>45041</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31219,7 +31219,7 @@
         <v>45041</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31276,7 +31276,7 @@
         <v>45041</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31333,7 +31333,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31390,7 +31390,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>45050</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>45054</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>45054</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>45054</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>45054</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>45069</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>45070</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>45071</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>45071</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>45071</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>45071</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>45083</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>45084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>45084</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>45084</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32535,7 +32535,7 @@
         <v>45084</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>45085</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>45085</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>45090</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>45090</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>45090</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>45090</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>45091</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>45091</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>45093</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>45104</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>45105</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>45106</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>45107</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33390,7 +33390,7 @@
         <v>45107</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>45128</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33504,7 +33504,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33561,7 +33561,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33618,7 +33618,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33675,7 +33675,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33732,7 +33732,7 @@
         <v>45142</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33789,7 +33789,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33846,7 +33846,7 @@
         <v>45145</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>45149</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45152</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45152</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45155</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45161</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45162</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45167</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -572,7 +572,7 @@
         <v>43418</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43483</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44375</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44930</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43418</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43418</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44881</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43376</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>43419</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43766</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>44452</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44970</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43326</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>43343</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43348</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>43369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>43376</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43387</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43391</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43395</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43415</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43418</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43418</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43419</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43426</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43442</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43442</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43442</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43446</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43451</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43493</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43497</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43502</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43504</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>43517</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>43523</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43524</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43535</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43539</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43542</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>43550</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>43551</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43551</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43552</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43554</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43559</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43560</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43563</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43570</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43570</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43572</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43572</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>43572</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43573</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43580</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43584</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43584</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43588</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43588</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43589</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43589</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43600</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43609</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43668</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43671</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43683</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43685</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43685</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43685</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43688</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43688</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43690</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43690</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43691</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43692</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43703</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43705</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43713</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43717</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43717</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43718</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43718</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43724</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43725</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43725</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43725</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43747</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43763</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43763</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43766</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43766</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43768</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43768</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43768</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43769</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>43770</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>43770</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>43770</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>43770</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43772</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43774</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43777</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43784</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43784</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43787</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43789</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43790</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43794</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43795</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43795</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43810</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43811</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43811</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43811</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43819</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43819</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43826</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>43826</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>43833</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>43838</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>43840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43840</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>43843</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>43843</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43843</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43844</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43844</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43850</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>43857</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>43872</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>43872</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>43872</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43885</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>43888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>43896</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>43906</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43907</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43907</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>43907</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>43908</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>43914</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>43921</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>43921</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>43924</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43949</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>43949</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>43977</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43985</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>43993</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43997</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>43999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44004</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44008</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44019</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44020</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44021</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44025</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44030</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44030</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44040</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44041</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44042</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44042</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44047</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44048</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44050</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44054</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44056</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>44057</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>44062</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>44064</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44067</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>44067</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44069</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44077</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44099</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44109</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44110</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44110</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44131</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44131</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44133</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44133</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44137</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44144</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44144</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>44148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>44151</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44162</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44166</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44179</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44182</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44182</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44201</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44207</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44207</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44212</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44217</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44223</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44224</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44225</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44235</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44236</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44244</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44244</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44244</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44249</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44257</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44258</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44258</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44264</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44271</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44278</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44281</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44286</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44286</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44288</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44288</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44290</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44320</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44329</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44342</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44356</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44357</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44357</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44357</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44369</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44369</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44369</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44375</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44375</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44375</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44376</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44377</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44377</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44382</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44383</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44403</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44404</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44410</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44412</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44412</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44413</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44421</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44426</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44426</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44427</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44432</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44435</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44438</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44439</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44442</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44445</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44445</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44452</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44461</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44463</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44467</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44469</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44470</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44476</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44476</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44482</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44483</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>44494</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>44494</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44505</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44515</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44515</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44517</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44517</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44529</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44529</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44529</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44532</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44543</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44546</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44551</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44557</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>44560</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44564</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44566</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44573</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>44581</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>44588</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44588</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>44608</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44610</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44614</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44619</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44625</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44627</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44629</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>44636</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44636</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>44636</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44655</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44659</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44662</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44670</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44677</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44678</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44683</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44685</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44692</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44692</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44700</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44705</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44712</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44722</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44740</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44740</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44746</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44746</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44774</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44776</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>44776</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>44781</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>44786</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>44798</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>44799</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>44799</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>44799</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44804</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44806</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44809</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44810</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44816</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44817</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44820</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>44839</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44840</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>44853</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>44865</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>44865</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44867</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44879</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44881</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44881</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>44881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>44881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44883</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>44883</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44883</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>44896</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>44896</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28510,7 +28510,7 @@
         <v>44896</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44899</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44900</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         <v>44901</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28738,7 +28738,7 @@
         <v>44904</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28795,7 +28795,7 @@
         <v>44904</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>44908</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44910</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44916</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44918</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44918</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44925</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44937</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44939</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44951</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44956</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44966</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44966</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44966</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44966</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44966</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44970</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44979</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44980</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44980</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44986</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44998</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>45000</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>45008</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>45016</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>45022</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>45029</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>45029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>45036</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>45040</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>45040</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>45041</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31162,7 +31162,7 @@
         <v>45041</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31219,7 +31219,7 @@
         <v>45041</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31276,7 +31276,7 @@
         <v>45041</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31333,7 +31333,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31390,7 +31390,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>45050</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>45054</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>45054</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>45054</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>45054</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>45069</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>45070</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>45071</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>45071</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>45071</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>45071</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>45083</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>45084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>45084</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>45084</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32535,7 +32535,7 @@
         <v>45084</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>45085</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>45085</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>45090</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>45090</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>45090</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>45090</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>45091</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>45091</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>45093</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>45104</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>45105</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>45106</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>45107</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33390,7 +33390,7 @@
         <v>45107</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>45128</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33504,7 +33504,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33561,7 +33561,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33618,7 +33618,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33675,7 +33675,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33732,7 +33732,7 @@
         <v>45142</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33789,7 +33789,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33846,7 +33846,7 @@
         <v>45145</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>45149</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45152</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45152</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45155</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45161</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45162</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45167</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -572,7 +572,7 @@
         <v>43418</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43483</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44375</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44930</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43418</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43418</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44881</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43376</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>43419</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43766</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>44452</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44970</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43326</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>43343</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43348</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>43369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>43376</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43387</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43391</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43395</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43415</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43418</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43418</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43419</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43426</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43442</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43442</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43442</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43446</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43451</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43493</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43497</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43502</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43504</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>43517</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>43523</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43524</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43535</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43539</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43542</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>43550</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>43551</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43551</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43552</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43554</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43559</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43560</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43563</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43570</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43570</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43572</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43572</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>43572</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43573</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43580</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43584</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43584</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43588</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43588</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43589</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43589</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43600</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43609</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43668</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43671</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43683</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43685</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43685</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43685</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43688</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43688</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43690</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43690</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43691</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43692</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43703</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43705</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43713</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43717</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43717</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43718</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43718</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43724</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43725</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43725</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43725</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43747</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43763</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43763</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43766</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43766</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43768</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43768</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43768</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43769</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>43770</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>43770</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>43770</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>43770</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43772</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43774</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43777</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43784</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43784</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43787</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43789</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43790</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43794</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43795</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43795</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43810</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43811</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43811</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43811</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43819</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43819</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43826</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>43826</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>43833</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>43838</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>43840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43840</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>43843</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>43843</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43843</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43844</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43844</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43850</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>43857</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>43872</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>43872</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>43872</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43885</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>43888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>43896</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>43906</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43907</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43907</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>43907</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>43908</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>43914</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>43921</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>43921</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>43924</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43949</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>43949</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>43977</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43985</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>43993</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43997</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>43999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44004</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44008</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44019</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44020</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44021</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44025</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44030</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44030</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44040</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44041</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44042</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44042</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44047</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44048</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44050</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44054</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44056</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>44057</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>44062</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>44064</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44067</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>44067</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44069</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44077</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44099</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44109</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44110</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44110</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44131</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44131</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44133</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44133</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44137</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44144</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44144</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>44148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>44151</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44162</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44166</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44179</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44182</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44182</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44201</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44207</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44207</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44212</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44217</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44223</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44224</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44225</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44235</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44236</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44244</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44244</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44244</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44249</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44257</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44258</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44258</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44264</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44271</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44278</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44281</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44286</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44286</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44288</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44288</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44290</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44320</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44329</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44342</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44356</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44357</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44357</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44357</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44369</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44369</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44369</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44375</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44375</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44375</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44376</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44377</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44377</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44382</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44383</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44403</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44404</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44410</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44412</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44412</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44413</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44421</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44426</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44426</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44427</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44432</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44435</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44438</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44439</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44442</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44445</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44445</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44452</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44461</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44463</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44467</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44469</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44470</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44476</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44476</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44482</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44483</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>44494</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>44494</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44505</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44515</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44515</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44517</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44517</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44529</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44529</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44529</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44532</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44543</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44546</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44551</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44557</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>44560</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44564</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44566</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44573</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>44581</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>44588</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44588</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>44608</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44610</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44614</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44619</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44625</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44627</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44629</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>44636</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44636</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>44636</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44655</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44659</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44662</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44670</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44677</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44678</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44683</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44685</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44692</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44692</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44700</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44705</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44712</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44722</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44740</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44740</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44746</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44746</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44774</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44776</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>44776</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>44781</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>44786</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>44798</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>44799</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>44799</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>44799</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44804</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44806</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44809</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44810</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44816</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44817</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44820</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>44839</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44840</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>44853</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>44865</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>44865</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44867</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44879</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44881</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44881</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>44881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>44881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44883</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>44883</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44883</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>44896</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>44896</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28510,7 +28510,7 @@
         <v>44896</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44899</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44900</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         <v>44901</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28738,7 +28738,7 @@
         <v>44904</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28795,7 +28795,7 @@
         <v>44904</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>44908</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44910</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44916</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44918</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44918</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44925</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44937</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44939</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44951</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44956</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44966</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44966</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44966</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44966</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44966</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44970</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44979</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44980</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44980</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44986</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44998</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>45000</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>45008</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>45016</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>45022</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>45029</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>45029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>45036</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>45040</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>45040</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>45041</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31162,7 +31162,7 @@
         <v>45041</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31219,7 +31219,7 @@
         <v>45041</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31276,7 +31276,7 @@
         <v>45041</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31333,7 +31333,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31390,7 +31390,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>45050</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>45054</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>45054</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>45054</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>45054</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>45069</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>45070</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>45071</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>45071</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>45071</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>45071</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>45083</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>45084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>45084</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>45084</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32535,7 +32535,7 @@
         <v>45084</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>45085</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>45085</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>45090</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>45090</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>45090</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>45090</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>45091</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>45091</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>45093</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>45104</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>45105</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>45106</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>45107</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33390,7 +33390,7 @@
         <v>45107</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>45128</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33504,7 +33504,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33561,7 +33561,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33618,7 +33618,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33675,7 +33675,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33732,7 +33732,7 @@
         <v>45142</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33789,7 +33789,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33846,7 +33846,7 @@
         <v>45145</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>45149</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45152</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45152</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45155</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45161</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45162</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45167</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -572,7 +572,7 @@
         <v>43418</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43483</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44375</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44930</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43418</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43418</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44881</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43376</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>43419</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43766</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>44452</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44970</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43326</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>43343</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43348</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>43369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>43376</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43387</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43391</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43395</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43415</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43418</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43418</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43419</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43426</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43442</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43442</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43442</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43446</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43451</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43493</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43497</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43502</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43504</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>43517</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>43523</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43524</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43535</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43539</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43542</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>43550</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>43551</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43551</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43552</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43554</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43559</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43560</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43563</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43570</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43570</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43572</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43572</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>43572</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43573</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43580</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43584</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43584</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43588</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43588</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43589</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43589</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43600</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43609</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43668</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43671</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43683</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43685</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43685</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43685</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43688</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43688</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43690</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43690</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43691</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43692</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43703</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43705</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43713</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43717</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43717</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43718</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43718</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43724</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43725</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43725</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43725</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43747</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43763</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43763</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43766</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43766</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43768</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43768</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43768</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43769</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>43770</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>43770</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>43770</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>43770</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43772</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43774</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43777</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43784</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43784</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43787</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43789</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43790</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43794</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43795</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43795</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43810</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43811</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43811</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43811</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43819</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43819</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43826</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>43826</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>43833</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>43838</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>43840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43840</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>43843</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>43843</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43843</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43844</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43844</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43850</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>43857</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>43872</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>43872</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>43872</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43885</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>43888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>43896</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>43906</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43907</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43907</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>43907</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>43908</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>43914</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>43921</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>43921</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>43924</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43949</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>43949</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>43977</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43985</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>43993</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43997</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>43999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44004</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44008</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44019</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44020</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44021</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44025</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44030</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44030</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44040</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44041</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44042</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44042</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44047</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44048</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44050</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44054</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44056</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>44057</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>44062</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>44064</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44067</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>44067</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44069</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44077</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44099</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44109</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44110</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44110</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44131</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44131</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44133</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44133</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44137</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44144</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44144</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>44148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>44151</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44162</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44166</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44179</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44182</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44182</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44201</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44207</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44207</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44212</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44217</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44223</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44224</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44225</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44235</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44236</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44244</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44244</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44244</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44249</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44257</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44258</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44258</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44264</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44271</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44278</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44281</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44286</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44286</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44288</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44288</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44290</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44320</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44329</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44342</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44356</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44357</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44357</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44357</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44369</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44369</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44369</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44375</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44375</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44375</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44376</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44377</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44377</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44382</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44383</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44403</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44404</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44410</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44412</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44412</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44413</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44421</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44426</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44426</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44427</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44432</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44435</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44438</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44439</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44442</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44445</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44445</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44452</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44461</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44463</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44467</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44469</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44470</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44476</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44476</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44482</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44483</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>44494</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>44494</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44505</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44515</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44515</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44517</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44517</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44529</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44529</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44529</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44532</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44543</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44546</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44551</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44557</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>44560</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44564</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44566</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44573</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>44581</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>44588</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44588</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>44608</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44610</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44614</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44619</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44625</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44627</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44629</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>44636</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44636</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>44636</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44655</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44659</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44662</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44670</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44677</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44678</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44683</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44685</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44692</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44692</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44700</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44705</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44712</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44722</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44740</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44740</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44746</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44746</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44774</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44776</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>44776</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>44781</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>44786</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>44798</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>44799</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>44799</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>44799</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44804</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44806</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44809</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44810</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44816</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44817</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44820</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>44839</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44840</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>44853</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>44865</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>44865</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44867</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44879</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44881</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44881</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>44881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>44881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44883</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>44883</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44883</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>44896</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>44896</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28510,7 +28510,7 @@
         <v>44896</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44899</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44900</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         <v>44901</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28738,7 +28738,7 @@
         <v>44904</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28795,7 +28795,7 @@
         <v>44904</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>44908</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44910</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44916</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44918</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44918</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44925</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44937</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44939</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44951</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44956</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44966</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44966</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44966</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44966</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44966</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44970</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44979</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44980</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44980</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44986</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44998</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>45000</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>45008</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>45016</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>45022</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>45029</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>45029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>45036</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>45040</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>45040</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>45041</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31162,7 +31162,7 @@
         <v>45041</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31219,7 +31219,7 @@
         <v>45041</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31276,7 +31276,7 @@
         <v>45041</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31333,7 +31333,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31390,7 +31390,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>45050</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>45054</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>45054</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>45054</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>45054</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>45069</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>45070</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>45071</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>45071</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>45071</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>45071</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>45083</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>45084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>45084</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>45084</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32535,7 +32535,7 @@
         <v>45084</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>45085</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>45085</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>45090</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>45090</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>45090</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>45090</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>45091</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>45091</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>45093</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>45104</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>45105</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>45106</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>45107</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33390,7 +33390,7 @@
         <v>45107</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>45128</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33504,7 +33504,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33561,7 +33561,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33618,7 +33618,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33675,7 +33675,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33732,7 +33732,7 @@
         <v>45142</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33789,7 +33789,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33846,7 +33846,7 @@
         <v>45145</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>45149</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45152</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45152</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45155</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45161</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45162</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45167</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -572,7 +572,7 @@
         <v>43418</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43483</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44375</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44930</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43418</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43418</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44881</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43376</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>43419</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43766</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>44452</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44970</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43326</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>43343</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43348</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>43369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>43376</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43387</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43391</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43395</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43415</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43418</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43418</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43419</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43426</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43442</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43442</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43442</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43446</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43451</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43493</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43497</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43502</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43504</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>43517</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>43523</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43524</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43535</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43539</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43542</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>43550</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>43551</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43551</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43552</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43554</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43559</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43560</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43563</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43570</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43570</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43572</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43572</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>43572</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43573</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43580</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43584</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43584</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43588</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43588</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43589</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43589</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43600</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43609</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43668</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43671</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43683</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43685</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43685</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43685</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43688</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43688</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43690</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43690</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43691</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43692</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43703</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43705</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43713</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43717</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43717</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43718</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43718</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43724</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43725</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43725</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43725</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43747</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43763</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43763</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43766</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43766</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43768</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43768</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43768</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43769</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>43770</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>43770</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>43770</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>43770</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43772</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43774</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43777</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43784</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43784</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43787</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43789</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43790</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43794</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43795</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43795</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43810</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43811</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43811</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43811</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43819</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43819</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43826</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>43826</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>43833</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>43838</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>43840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43840</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>43843</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>43843</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43843</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43844</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43844</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43850</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>43857</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>43872</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>43872</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>43872</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43885</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>43888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>43896</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>43906</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43907</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43907</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>43907</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>43908</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>43914</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>43921</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>43921</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>43924</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43949</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>43949</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>43977</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43985</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>43993</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43997</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>43999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44004</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44008</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44019</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44020</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44021</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44025</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44030</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44030</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44040</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44041</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44042</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44042</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44047</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44048</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44050</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44054</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44056</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>44057</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>44062</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>44064</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44067</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>44067</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44069</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44077</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44099</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44109</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44110</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44110</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44131</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44131</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44133</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44133</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44137</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44144</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44144</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>44148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>44151</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44162</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44166</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44179</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44182</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44182</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44201</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44207</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44207</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44212</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44217</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44223</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44224</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44225</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44235</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44236</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44244</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44244</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44244</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44249</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44257</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44258</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44258</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44264</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44271</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44278</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44281</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44286</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44286</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44288</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44288</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44290</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44320</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44329</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44342</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44356</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44357</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44357</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44357</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44369</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44369</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44369</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44375</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44375</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44375</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44376</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44377</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44377</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44382</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44383</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44403</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44404</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44410</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44412</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44412</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44413</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44421</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44426</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44426</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44427</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44432</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44435</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44438</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44439</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44442</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44445</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44445</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44452</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44461</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44463</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44467</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44469</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44470</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44476</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44476</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44482</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44483</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>44494</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>44494</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44505</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44515</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44515</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44517</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44517</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44529</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44529</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44529</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44532</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44543</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44546</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44551</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44557</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>44560</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44564</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44566</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44573</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>44581</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>44588</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44588</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>44608</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44610</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44614</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44619</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44625</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44627</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44629</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>44636</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44636</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>44636</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44655</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44659</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44662</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44670</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44677</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44678</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44683</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44685</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44692</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44692</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44700</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44705</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44712</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44722</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44740</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44740</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44746</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44746</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44774</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44776</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>44776</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>44781</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>44786</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>44798</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>44799</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>44799</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>44799</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44804</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44806</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44809</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44810</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44816</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44817</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44820</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>44839</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44840</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>44853</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>44865</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>44865</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44867</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44879</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44881</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44881</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>44881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>44881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44883</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>44883</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44883</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>44896</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>44896</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28510,7 +28510,7 @@
         <v>44896</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44899</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44900</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         <v>44901</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28738,7 +28738,7 @@
         <v>44904</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28795,7 +28795,7 @@
         <v>44904</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>44908</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44910</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44916</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44918</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44918</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44925</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44937</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44939</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44951</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44956</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44966</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44966</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44966</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44966</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44966</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44970</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44979</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44980</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44980</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44986</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44998</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>45000</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>45008</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>45016</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>45022</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>45029</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>45029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>45036</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>45040</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>45040</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>45041</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31162,7 +31162,7 @@
         <v>45041</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31219,7 +31219,7 @@
         <v>45041</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31276,7 +31276,7 @@
         <v>45041</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31333,7 +31333,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31390,7 +31390,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>45050</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>45054</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>45054</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>45054</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>45054</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>45069</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>45070</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>45071</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>45071</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>45071</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>45071</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>45083</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>45084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>45084</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>45084</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32535,7 +32535,7 @@
         <v>45084</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>45085</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>45085</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>45090</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>45090</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>45090</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>45090</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>45091</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>45091</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>45093</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>45104</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>45105</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>45106</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>45107</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33390,7 +33390,7 @@
         <v>45107</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>45128</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33504,7 +33504,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33561,7 +33561,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33618,7 +33618,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33675,7 +33675,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33732,7 +33732,7 @@
         <v>45142</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33789,7 +33789,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33846,7 +33846,7 @@
         <v>45145</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>45149</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45152</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45152</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45155</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45161</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45162</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45167</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -572,7 +572,7 @@
         <v>43418</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43483</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44375</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44930</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43418</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43418</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44881</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43376</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>43419</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43766</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>44452</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44970</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43326</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>43343</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43348</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>43369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>43376</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43387</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43391</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43395</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43415</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43418</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43418</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43419</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43426</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43442</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43442</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43442</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43446</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43451</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43493</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43497</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43502</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43504</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>43517</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>43523</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43524</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43535</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43539</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43542</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>43550</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>43551</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43551</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43552</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43554</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43559</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43560</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43563</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43570</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43570</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43572</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43572</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>43572</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43573</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43580</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43584</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43584</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43588</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43588</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43589</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43589</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43600</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43609</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43668</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43671</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43683</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43685</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43685</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43685</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43688</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43688</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43690</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43690</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43691</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43692</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43703</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43705</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43713</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43717</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43717</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43718</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43718</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43724</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43725</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43725</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43725</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43747</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43763</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43763</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43766</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43766</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43768</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43768</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43768</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43769</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>43770</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>43770</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>43770</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>43770</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43772</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43774</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43777</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43784</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43784</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43787</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43789</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43790</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43794</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43795</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43795</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43810</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43811</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43811</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43811</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43819</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43819</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43826</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>43826</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>43833</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>43838</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>43840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43840</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>43843</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>43843</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43843</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43844</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43844</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43850</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>43857</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>43872</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>43872</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>43872</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43885</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>43888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>43896</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>43906</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43907</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43907</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>43907</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>43908</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>43914</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>43921</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>43921</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>43924</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43949</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>43949</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>43977</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43985</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>43993</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43997</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>43999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44004</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44008</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44019</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44020</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44021</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44025</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44030</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44030</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44040</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44041</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44042</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44042</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44047</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44048</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44050</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44054</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44056</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>44057</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>44062</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>44064</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44067</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>44067</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44069</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44077</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44099</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44109</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44110</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44110</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44131</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44131</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44133</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44133</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44137</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44144</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44144</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>44148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>44151</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44162</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44166</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44179</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44182</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44182</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44201</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44207</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44207</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44212</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44217</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44223</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44224</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44225</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44235</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44236</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44244</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44244</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44244</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44249</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44257</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44258</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44258</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44264</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44271</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44278</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44281</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44286</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44286</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44288</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44288</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44290</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44320</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44329</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44342</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44356</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44357</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44357</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44357</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44369</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44369</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44369</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44375</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44375</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44375</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44376</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44377</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44377</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44382</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44383</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44403</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44404</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44410</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44412</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44412</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44413</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44421</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44426</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44426</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44427</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44432</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44435</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44438</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44439</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44442</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44445</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44445</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44452</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44461</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44463</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44467</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44469</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44470</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44476</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44476</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44482</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44483</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>44494</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>44494</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44505</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44515</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44515</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44517</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44517</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44529</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44529</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44529</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44532</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44543</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44546</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44551</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44557</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>44560</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44564</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44566</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44573</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>44581</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>44588</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44588</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>44608</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44610</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44614</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44619</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44625</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44627</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44629</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>44636</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44636</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>44636</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44655</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44659</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44662</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44670</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44677</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44678</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44683</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44685</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44692</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44692</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44700</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44705</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44712</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44722</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44740</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44740</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44746</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44746</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44774</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44776</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>44776</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>44781</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>44786</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>44798</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>44799</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>44799</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>44799</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44804</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44806</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44809</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44810</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44816</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44817</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44820</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>44839</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44840</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>44853</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>44865</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>44865</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44867</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44879</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44881</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44881</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>44881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>44881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44883</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>44883</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44883</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>44896</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>44896</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28510,7 +28510,7 @@
         <v>44896</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44899</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44900</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         <v>44901</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28738,7 +28738,7 @@
         <v>44904</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28795,7 +28795,7 @@
         <v>44904</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>44908</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44910</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44916</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44918</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44918</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44925</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44937</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44939</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44951</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44956</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44966</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44966</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44966</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44966</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44966</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44970</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44979</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44980</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44980</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44986</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44998</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>45000</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>45008</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>45016</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>45022</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>45029</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>45029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>45036</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>45040</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>45040</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>45041</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31162,7 +31162,7 @@
         <v>45041</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31219,7 +31219,7 @@
         <v>45041</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31276,7 +31276,7 @@
         <v>45041</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31333,7 +31333,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31390,7 +31390,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>45050</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>45054</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>45054</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>45054</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>45054</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>45069</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>45070</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>45071</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>45071</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>45071</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>45071</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>45083</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>45084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>45084</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>45084</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32535,7 +32535,7 @@
         <v>45084</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>45085</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>45085</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>45090</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>45090</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>45090</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>45090</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>45091</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>45091</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>45093</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>45104</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>45105</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>45106</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>45107</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33390,7 +33390,7 @@
         <v>45107</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>45128</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33504,7 +33504,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33561,7 +33561,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33618,7 +33618,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33675,7 +33675,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33732,7 +33732,7 @@
         <v>45142</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33789,7 +33789,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33846,7 +33846,7 @@
         <v>45145</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>45149</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45152</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45152</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45155</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45161</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45162</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45167</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -572,7 +572,7 @@
         <v>43418</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43483</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44375</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44930</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43418</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43418</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44881</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43376</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>43419</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43766</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>44452</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44970</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43326</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>43343</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43348</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>43369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>43376</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43387</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43391</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43395</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43415</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43418</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43418</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43419</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43426</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43442</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43442</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43442</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43446</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43451</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43493</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43497</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43502</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43504</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>43517</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>43523</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43524</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43535</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43539</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43542</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>43550</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>43551</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43551</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43552</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43554</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43559</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43560</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43563</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43570</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43570</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43572</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43572</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>43572</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43573</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43580</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43584</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43584</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43588</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43588</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43589</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43589</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43600</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43609</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43668</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43671</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43683</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43685</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43685</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43685</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43688</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43688</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43690</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43690</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43691</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43692</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43703</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43705</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43713</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43717</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43717</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43718</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43718</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43724</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43725</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43725</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43725</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43747</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43763</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43763</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43766</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43766</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43768</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43768</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43768</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43769</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>43770</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>43770</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>43770</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>43770</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43772</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43774</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43777</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43784</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43784</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43787</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43789</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43790</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43794</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43795</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43795</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43810</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43811</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43811</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43811</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43819</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43819</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43826</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>43826</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>43833</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>43838</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>43840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43840</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>43843</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>43843</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43843</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43844</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43844</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43850</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>43857</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>43872</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>43872</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>43872</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43885</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>43888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>43896</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>43906</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43907</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43907</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>43907</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>43908</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>43914</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>43921</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>43921</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>43924</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43949</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>43949</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>43977</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43985</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>43993</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43997</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>43999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44004</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44008</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44019</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44020</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44021</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44025</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44030</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44030</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44040</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44041</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44042</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44042</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44047</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44048</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44050</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44054</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44056</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>44057</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>44062</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>44064</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44067</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>44067</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44069</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44077</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44099</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44109</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44110</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44110</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44131</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44131</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44133</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44133</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44137</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44144</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44144</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>44148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>44151</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44162</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44166</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44179</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44182</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44182</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44201</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44207</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44207</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44212</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44217</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44223</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44224</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44225</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44235</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44236</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44244</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44244</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44244</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44249</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44257</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44258</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44258</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44264</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44271</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44278</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44281</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44286</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44286</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44288</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44288</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44290</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44320</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44329</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44342</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44356</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44357</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44357</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44357</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44369</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44369</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44369</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44375</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44375</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44375</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44376</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44377</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44377</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44382</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44383</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44403</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44404</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44410</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44412</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44412</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44413</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44421</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44426</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44426</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44427</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44432</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44435</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44438</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44439</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44442</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44445</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44445</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44452</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44461</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44463</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44467</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44469</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44470</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44476</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44476</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44482</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44483</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>44494</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>44494</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44505</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44515</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44515</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44517</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44517</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44529</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44529</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44529</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44532</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44543</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44546</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44551</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44557</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>44560</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44564</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44566</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44573</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>44581</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>44588</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44588</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>44608</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44610</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44614</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44619</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44625</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44627</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44629</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>44636</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44636</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>44636</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44655</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44659</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44662</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44670</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44677</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44678</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44683</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44685</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44692</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44692</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44700</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44705</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44712</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44722</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44740</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44740</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44746</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44746</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44774</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44776</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>44776</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>44781</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>44786</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>44798</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>44799</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>44799</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>44799</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44804</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44806</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44809</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44810</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44816</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44817</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44820</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>44839</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44840</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>44853</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>44865</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>44865</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44867</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44879</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44881</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44881</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>44881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>44881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44883</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>44883</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44883</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>44896</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>44896</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28510,7 +28510,7 @@
         <v>44896</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44899</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44900</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         <v>44901</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28738,7 +28738,7 @@
         <v>44904</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28795,7 +28795,7 @@
         <v>44904</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>44908</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44910</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44916</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44918</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44918</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44925</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44937</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44939</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44951</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44956</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44966</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44966</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44966</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44966</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44966</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44970</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44979</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44980</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44980</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44986</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44998</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>45000</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>45008</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>45016</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>45022</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>45029</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>45029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>45036</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>45040</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>45040</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>45041</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31162,7 +31162,7 @@
         <v>45041</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31219,7 +31219,7 @@
         <v>45041</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31276,7 +31276,7 @@
         <v>45041</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31333,7 +31333,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31390,7 +31390,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>45050</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>45054</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>45054</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>45054</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>45054</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>45069</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>45070</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>45071</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>45071</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>45071</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>45071</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>45083</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>45084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>45084</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>45084</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32535,7 +32535,7 @@
         <v>45084</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>45085</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>45085</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>45090</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>45090</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>45090</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>45090</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>45091</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>45091</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>45093</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>45104</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>45105</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>45106</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>45107</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33390,7 +33390,7 @@
         <v>45107</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>45128</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33504,7 +33504,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33561,7 +33561,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33618,7 +33618,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33675,7 +33675,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33732,7 +33732,7 @@
         <v>45142</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33789,7 +33789,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33846,7 +33846,7 @@
         <v>45145</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>45149</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45152</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45152</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45155</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45161</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45162</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45167</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -572,7 +572,7 @@
         <v>43418</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43483</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>44375</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>44930</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>43418</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43418</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44881</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43376</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>43419</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>43766</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>44452</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44970</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43326</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>43343</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43348</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>43369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>43376</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43387</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43391</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43395</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43415</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43418</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43418</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43419</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43426</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43442</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43442</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43442</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43446</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43451</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43493</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43497</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43502</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43504</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>43517</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>43523</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43524</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43535</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43539</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43542</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>43550</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>43551</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43551</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43552</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43554</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43559</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43560</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43563</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43570</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43570</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43572</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43572</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>43572</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43573</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43580</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43584</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43584</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43588</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43588</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43589</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43589</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43600</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43609</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43668</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43671</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43683</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43685</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43685</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43685</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43688</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43688</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43690</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43690</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43691</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43692</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43703</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43705</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43713</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43717</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43717</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43718</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43718</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43724</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43725</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43725</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43725</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43747</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43763</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43763</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43766</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43766</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43768</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43768</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43768</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43769</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>43770</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>43770</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>43770</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>43770</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43772</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43774</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43777</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43784</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43784</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43787</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43789</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43790</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43794</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43795</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43795</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43810</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43811</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43811</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43811</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43819</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43819</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43826</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>43826</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>43833</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>43838</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>43840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43840</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>43843</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>43843</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43843</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43844</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43844</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43850</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>43857</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>43872</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>43872</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>43872</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43885</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>43888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>43896</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>43906</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43907</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43907</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>43907</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>43908</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>43914</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>43921</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>43921</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>43924</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43949</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>43949</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>43977</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43985</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>43993</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43997</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>43999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44004</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44008</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44019</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44020</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44021</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44025</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44030</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44030</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44040</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44041</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44042</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44042</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44047</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44048</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44050</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44054</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44056</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>44057</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>44062</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>44064</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44067</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>44067</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44069</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44077</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44099</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44109</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44110</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44110</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44131</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44131</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44133</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44133</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44137</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44144</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44144</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>44148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>44151</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44162</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44166</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44179</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44182</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44182</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44201</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44207</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44207</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44212</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44217</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44223</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44224</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44225</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44235</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44236</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44244</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44244</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44244</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44249</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44257</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44258</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44258</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44264</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44271</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44278</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44281</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44286</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44286</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44288</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44288</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44290</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44320</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44329</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44342</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44356</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44357</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44357</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44357</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44369</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44369</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44369</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44375</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44375</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44375</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44376</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44377</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44377</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44382</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44383</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44403</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44404</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44410</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44412</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44412</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44413</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44421</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44426</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44426</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44427</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44432</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44435</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44438</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44439</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44442</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44445</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44445</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44452</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44461</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44463</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44467</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44469</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44470</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44476</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44476</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44482</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44483</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>44494</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>44494</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44505</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44515</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44515</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44517</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44517</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44529</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44529</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44529</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44532</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44543</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44546</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44551</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44557</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>44560</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44564</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44566</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44573</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>44581</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>44588</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44588</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>44608</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44610</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44614</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44619</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44625</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44627</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44629</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>44636</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44636</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>44636</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44655</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44659</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44662</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44670</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44677</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44678</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44683</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44685</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44692</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44692</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44700</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44705</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44712</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44722</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44740</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44740</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44746</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44746</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44774</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44776</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>44776</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>44781</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>44786</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>44798</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>44799</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>44799</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>44799</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44804</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44806</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44809</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44810</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44816</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44817</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44820</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>44839</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44840</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>44853</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>44865</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>44865</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44867</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44879</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44881</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44881</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>44881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>44881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44883</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>44883</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44883</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>44896</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>44896</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28510,7 +28510,7 @@
         <v>44896</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44899</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44900</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         <v>44901</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28738,7 +28738,7 @@
         <v>44904</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28795,7 +28795,7 @@
         <v>44904</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>44908</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44910</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44916</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44918</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44918</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44925</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44937</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44939</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44951</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44956</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44966</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44966</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44966</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44966</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44966</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44970</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44979</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44980</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44980</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44986</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44998</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>45000</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>45008</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>45016</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>45022</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>45029</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>45029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>45036</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>45040</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>45040</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>45041</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31162,7 +31162,7 @@
         <v>45041</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31219,7 +31219,7 @@
         <v>45041</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31276,7 +31276,7 @@
         <v>45041</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31333,7 +31333,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31390,7 +31390,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>45050</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>45054</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>45054</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>45054</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>45054</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>45069</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>45070</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>45071</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>45071</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>45071</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>45071</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>45083</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>45084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>45084</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>45084</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32535,7 +32535,7 @@
         <v>45084</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>45085</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>45085</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>45090</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>45090</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>45090</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>45090</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>45091</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>45091</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>45093</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>45104</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>45105</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>45106</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>45107</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33390,7 +33390,7 @@
         <v>45107</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>45128</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33504,7 +33504,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33561,7 +33561,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33618,7 +33618,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33675,7 +33675,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33732,7 +33732,7 @@
         <v>45142</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33789,7 +33789,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33846,7 +33846,7 @@
         <v>45145</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>45149</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45152</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45152</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45155</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45161</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45162</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45167</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -572,7 +572,7 @@
         <v>43418</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -635,27 +635,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 63190-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 63190-2018.xlsx", "A 63190-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 63190-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 63190-2018.png", "A 63190-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 63190-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 63190-2018.docx", "A 63190-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 63190-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 63190-2018.docx", "A 63190-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 63190-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 63190-2018.docx", "A 63190-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 63190-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 63190-2018.docx", "A 63190-2018")</f>
         <v/>
       </c>
     </row>
@@ -669,7 +669,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,27 +729,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 60949-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 60949-2018.xlsx", "A 60949-2018")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 60949-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 60949-2018.png", "A 60949-2018")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 60949-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 60949-2018.docx", "A 60949-2018")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 60949-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 60949-2018.docx", "A 60949-2018")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 60949-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 60949-2018.docx", "A 60949-2018")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 60949-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 60949-2018.docx", "A 60949-2018")</f>
         <v/>
       </c>
     </row>
@@ -763,7 +763,7 @@
         <v>43483</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 4189-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 4189-2019.xlsx", "A 4189-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 4189-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 4189-2019.png", "A 4189-2019")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/knärot/A 4189-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/knärot/A 4189-2019.png", "A 4189-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 4189-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 4189-2019.docx", "A 4189-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 4189-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 4189-2019.docx", "A 4189-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 4189-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 4189-2019.docx", "A 4189-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 4189-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 4189-2019.docx", "A 4189-2019")</f>
         <v/>
       </c>
     </row>
@@ -854,7 +854,7 @@
         <v>44375</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -907,27 +907,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 36377-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 36377-2021.xlsx", "A 36377-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 36377-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 36377-2021.png", "A 36377-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 36377-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 36377-2021.docx", "A 36377-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 36377-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 36377-2021.docx", "A 36377-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 36377-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 36377-2021.docx", "A 36377-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 36377-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 36377-2021.docx", "A 36377-2021")</f>
         <v/>
       </c>
     </row>
@@ -941,7 +941,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -994,27 +994,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 26898-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 26898-2022.xlsx", "A 26898-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 26898-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 26898-2022.png", "A 26898-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 26898-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 26898-2022.docx", "A 26898-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 26898-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 26898-2022.docx", "A 26898-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 26898-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 26898-2022.docx", "A 26898-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 26898-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 26898-2022.docx", "A 26898-2022")</f>
         <v/>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
         <v>44930</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1081,27 +1081,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 592-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 592-2023.xlsx", "A 592-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 592-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 592-2023.png", "A 592-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 592-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 592-2023.docx", "A 592-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 592-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 592-2023.docx", "A 592-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 592-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 592-2023.docx", "A 592-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 592-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 592-2023.docx", "A 592-2023")</f>
         <v/>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
         <v>43418</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1167,31 +1167,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 59351-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 59351-2018.xlsx", "A 59351-2018")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 59351-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 59351-2018.png", "A 59351-2018")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/knärot/A 59351-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/knärot/A 59351-2018.png", "A 59351-2018")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 59351-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 59351-2018.docx", "A 59351-2018")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 59351-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 59351-2018.docx", "A 59351-2018")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 59351-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 59351-2018.docx", "A 59351-2018")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 59351-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 59351-2018.docx", "A 59351-2018")</f>
         <v/>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
         <v>43418</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1257,27 +1257,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 63177-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 63177-2018.xlsx", "A 63177-2018")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 63177-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 63177-2018.png", "A 63177-2018")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 63177-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 63177-2018.docx", "A 63177-2018")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 63177-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 63177-2018.docx", "A 63177-2018")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 63177-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 63177-2018.docx", "A 63177-2018")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 63177-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 63177-2018.docx", "A 63177-2018")</f>
         <v/>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
         <v>44296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,27 +1343,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 17055-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 17055-2021.xlsx", "A 17055-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 17055-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 17055-2021.png", "A 17055-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 17055-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 17055-2021.docx", "A 17055-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 17055-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 17055-2021.docx", "A 17055-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 17055-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 17055-2021.docx", "A 17055-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 17055-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 17055-2021.docx", "A 17055-2021")</f>
         <v/>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
         <v>44881</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1429,27 +1429,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 54195-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 54195-2022.xlsx", "A 54195-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 54195-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 54195-2022.png", "A 54195-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 54195-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 54195-2022.docx", "A 54195-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 54195-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 54195-2022.docx", "A 54195-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 54195-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 54195-2022.docx", "A 54195-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 54195-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 54195-2022.docx", "A 54195-2022")</f>
         <v/>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
         <v>43376</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1514,27 +1514,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 49243-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 49243-2018.xlsx", "A 49243-2018")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 49243-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 49243-2018.png", "A 49243-2018")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 49243-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 49243-2018.docx", "A 49243-2018")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 49243-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 49243-2018.docx", "A 49243-2018")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 49243-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 49243-2018.docx", "A 49243-2018")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 49243-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 49243-2018.docx", "A 49243-2018")</f>
         <v/>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
         <v>43419</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1599,27 +1599,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 59626-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 59626-2018.xlsx", "A 59626-2018")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 59626-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 59626-2018.png", "A 59626-2018")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 59626-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 59626-2018.docx", "A 59626-2018")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 59626-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 59626-2018.docx", "A 59626-2018")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 59626-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 59626-2018.docx", "A 59626-2018")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 59626-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 59626-2018.docx", "A 59626-2018")</f>
         <v/>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
         <v>43419</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,27 +1684,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 59625-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 59625-2018.xlsx", "A 59625-2018")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 59625-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 59625-2018.png", "A 59625-2018")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 59625-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 59625-2018.docx", "A 59625-2018")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 59625-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 59625-2018.docx", "A 59625-2018")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 59625-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 59625-2018.docx", "A 59625-2018")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 59625-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 59625-2018.docx", "A 59625-2018")</f>
         <v/>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
         <v>43496</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1769,27 +1769,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 7073-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 7073-2019.xlsx", "A 7073-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 7073-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 7073-2019.png", "A 7073-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 7073-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 7073-2019.docx", "A 7073-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 7073-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 7073-2019.docx", "A 7073-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 7073-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 7073-2019.docx", "A 7073-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 7073-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 7073-2019.docx", "A 7073-2019")</f>
         <v/>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
         <v>43766</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,27 +1854,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 57014-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 57014-2019.xlsx", "A 57014-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 57014-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 57014-2019.png", "A 57014-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 57014-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 57014-2019.docx", "A 57014-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 57014-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 57014-2019.docx", "A 57014-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 57014-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 57014-2019.docx", "A 57014-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 57014-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 57014-2019.docx", "A 57014-2019")</f>
         <v/>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
         <v>44452</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1939,27 +1939,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 48420-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 48420-2021.xlsx", "A 48420-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 48420-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 48420-2021.png", "A 48420-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 48420-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 48420-2021.docx", "A 48420-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 48420-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 48420-2021.docx", "A 48420-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 48420-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 48420-2021.docx", "A 48420-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 48420-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 48420-2021.docx", "A 48420-2021")</f>
         <v/>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
         <v>44970</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2024,27 +2024,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 7240-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 7240-2023.xlsx", "A 7240-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 7240-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 7240-2023.png", "A 7240-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 7240-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 7240-2023.docx", "A 7240-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 7240-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 7240-2023.docx", "A 7240-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 7240-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 7240-2023.docx", "A 7240-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 7240-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 7240-2023.docx", "A 7240-2023")</f>
         <v/>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
         <v>43326</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>43335</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>43335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>43343</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>43348</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>43369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>43374</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>43376</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>43376</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43382</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43387</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43388</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43391</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43395</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43397</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43415</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43418</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43418</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43419</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43419</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43419</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43426</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43432</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43441</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43442</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43442</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43442</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43446</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43451</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43451</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43473</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43493</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43497</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43502</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43504</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43509</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>43510</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>43517</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>43521</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>43523</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43524</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43535</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43539</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43542</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>43543</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>43544</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>43550</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>43551</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43551</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43552</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43554</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43559</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43560</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43563</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43570</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>43570</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>43572</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43572</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>43572</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>43573</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>43580</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>43584</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43584</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43588</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43588</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43588</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43589</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>43589</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>43598</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>43600</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>43606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43609</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43635</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>43661</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>43668</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>43668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>43668</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>43671</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>43683</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>43685</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>43685</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43685</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43685</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43688</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43688</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43690</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43690</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43691</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43692</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43703</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43705</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43705</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43713</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43717</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43717</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43718</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43718</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43724</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43725</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43725</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43725</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43747</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43755</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43761</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43763</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43763</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43766</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43766</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43768</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43768</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>43768</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>43769</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>43770</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>43770</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>43770</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>43770</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43772</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43774</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43777</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>43777</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>43784</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>43784</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43787</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43789</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43790</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43794</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43795</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43795</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43810</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43811</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>43811</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>43811</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43819</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>43819</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>43826</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>43826</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>43833</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>43838</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>43840</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>43840</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>43843</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>43843</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>43843</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>43844</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43844</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>43850</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>43857</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>43858</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>43867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>43867</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>43871</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>43872</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>43872</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>43872</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>43885</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>43886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>43888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>43892</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>43895</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>43896</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>43901</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>43902</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>43902</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>43902</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>43906</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>43906</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>43907</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43907</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>43907</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>43908</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>43914</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>43921</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>43921</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>43924</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43930</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>43936</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>43949</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>43949</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>43977</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43985</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>43993</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>43997</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>43999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44004</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44008</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44019</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>44020</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>44021</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>44025</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>44030</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44030</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44040</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44041</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44042</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44042</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44047</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44048</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44050</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>44053</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44054</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44056</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>44057</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>44062</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>44064</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44067</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>44067</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44069</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44069</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44069</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>44077</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>44083</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44083</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44085</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>44099</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>44109</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>44110</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16782,7 +16782,7 @@
         <v>44110</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44110</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44131</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44131</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>44131</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44133</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44133</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44134</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44137</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44144</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44144</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         <v>44148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>44151</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>44162</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17979,7 +17979,7 @@
         <v>44166</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>44166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44169</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>44173</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>44175</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>44175</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18321,7 +18321,7 @@
         <v>44179</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>44179</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44181</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         <v>44182</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         <v>44182</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         <v>44201</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         <v>44207</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18720,7 +18720,7 @@
         <v>44207</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
         <v>44212</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18834,7 +18834,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44217</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>44223</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>44224</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44225</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44235</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44236</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44244</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44244</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44244</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44249</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44257</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44258</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44258</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44264</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44271</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44278</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44281</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44286</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44286</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44288</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44288</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44290</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44320</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44329</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44342</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44356</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44357</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44357</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44357</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44369</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44369</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44369</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44375</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44375</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44375</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44376</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44377</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>44377</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44382</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>44383</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44403</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>44404</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>44410</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44412</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>44412</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44413</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>44421</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44426</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44426</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44426</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44427</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44432</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44435</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44438</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44439</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44442</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44445</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44445</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44452</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44461</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44463</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44467</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44469</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44470</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44476</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44476</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44482</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44483</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>44494</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>44494</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>44505</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>44505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>44515</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>44515</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>44517</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>44517</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>44529</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44529</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44529</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44532</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>44538</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>44543</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44546</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44551</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44557</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>44560</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44564</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44566</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44573</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>44581</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>44588</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44588</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>44608</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>44610</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44614</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>44614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>44619</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44625</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44627</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44629</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         <v>44636</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
         <v>44636</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>44636</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>44655</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44659</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44662</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44670</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>44677</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25325,7 +25325,7 @@
         <v>44678</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25382,7 +25382,7 @@
         <v>44683</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25439,7 +25439,7 @@
         <v>44685</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25496,7 +25496,7 @@
         <v>44692</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25553,7 +25553,7 @@
         <v>44692</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44700</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44705</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44712</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44722</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44740</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44740</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44746</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44746</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44774</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>44776</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>44776</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>44781</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>44786</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>44798</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>44799</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>44799</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>44799</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44804</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44806</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44809</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44810</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44816</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44817</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44820</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>44839</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44840</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>44853</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>44865</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>44865</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44867</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>44874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44879</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44881</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>44881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44881</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>44881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>44881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44883</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>44883</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44883</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>44896</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>44896</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28510,7 +28510,7 @@
         <v>44896</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44899</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44900</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         <v>44901</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28738,7 +28738,7 @@
         <v>44904</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28795,7 +28795,7 @@
         <v>44904</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>44908</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>44910</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44916</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>44918</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44918</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>44925</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44937</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44939</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44951</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44956</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29712,7 +29712,7 @@
         <v>44966</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44966</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44966</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44966</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44966</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44970</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44979</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44980</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44980</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44986</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30344,7 +30344,7 @@
         <v>44998</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>45000</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30458,7 +30458,7 @@
         <v>45008</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>45016</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>45022</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>45029</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>45029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>45036</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>45040</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>45040</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>45041</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31162,7 +31162,7 @@
         <v>45041</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31219,7 +31219,7 @@
         <v>45041</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31276,7 +31276,7 @@
         <v>45041</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31333,7 +31333,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31390,7 +31390,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>45050</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>45054</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>45054</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>45054</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>45054</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>45069</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>45070</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>45071</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>45071</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>45071</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>45071</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>45083</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>45084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>45084</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>45084</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32535,7 +32535,7 @@
         <v>45084</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>45085</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
         <v>45085</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         <v>45090</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32763,7 +32763,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>45090</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>45090</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>45090</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>45091</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>45091</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>45093</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>45104</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>45105</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>45106</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>45107</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33390,7 +33390,7 @@
         <v>45107</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>45128</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33504,7 +33504,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33561,7 +33561,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33618,7 +33618,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33675,7 +33675,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33732,7 +33732,7 @@
         <v>45142</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33789,7 +33789,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33846,7 +33846,7 @@
         <v>45145</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>45149</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45152</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>45152</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45155</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>45159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34193,7 +34193,7 @@
         <v>45161</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34250,7 +34250,7 @@
         <v>45162</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34307,7 +34307,7 @@
         <v>45167</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -572,7 +572,7 @@
         <v>43418</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44494</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>43483</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43418</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>44375</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>44740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44930</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43418</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>44296</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44865</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>43376</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>43418</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43496</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>44970</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43348</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43353</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43374</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43376</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43382</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43387</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43397</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43412</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43415</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43418</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43418</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43419</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43419</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43426</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43432</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43439</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43442</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43442</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43442</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>43468</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43475</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43475</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43509</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>43510</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>43517</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>43539</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         <v>43542</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43543</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43544</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43551</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43552</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43554</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43570</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>43570</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>43572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>43572</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43572</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>43573</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43588</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43588</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43589</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43600</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43606</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43608</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43609</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43621</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43635</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43661</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>43668</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>43671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>43683</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43685</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43685</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43685</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43685</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43688</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43688</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43691</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>43703</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>43705</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>43705</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43713</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43717</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43718</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43718</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43724</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43725</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43725</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43725</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43739</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43747</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43755</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43761</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43763</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43763</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43766</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43768</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43768</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43769</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43770</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43770</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43770</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43770</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43772</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43774</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43777</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43777</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43784</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43784</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>43787</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>43794</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43795</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43810</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>43811</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>43811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>43815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>43815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43819</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43826</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>43826</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>43833</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>43838</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43840</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43843</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>43843</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>43844</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43850</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43857</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43858</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>43867</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>43867</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>43871</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>43872</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43872</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43872</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43885</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43886</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43888</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43892</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>43895</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43896</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43901</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>43902</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>43902</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43902</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43906</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43906</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43907</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43907</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43914</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43921</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43921</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43924</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43930</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43936</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43993</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43997</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43999</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44007</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>44019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44020</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>44025</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44030</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44030</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44040</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44041</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44042</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>44042</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44047</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44048</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44050</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44053</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44054</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44056</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44057</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44062</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44062</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44064</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44067</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44067</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44069</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44069</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44083</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44083</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44099</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>44109</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>44110</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44110</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44110</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44127</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>44131</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>44131</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>44131</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44133</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>44134</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>44137</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44144</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44144</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>44148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>44148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44148</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>44151</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>44162</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>44166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>44166</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>44169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>44173</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>44175</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>44175</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>44179</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>44182</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>44182</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>44201</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44207</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44207</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44212</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44217</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44217</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44223</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44223</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44224</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44225</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44235</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44236</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44244</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44244</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44244</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>44249</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>44257</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>44258</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>44258</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>44259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>44264</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44278</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>44286</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>44286</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44288</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44288</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44290</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44320</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44329</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44342</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44356</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44357</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44357</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44357</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44369</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44369</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44369</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44375</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44375</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44376</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44377</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44377</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>44382</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>44383</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44403</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44404</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44410</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>44412</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44412</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44413</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>44426</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>44426</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44426</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44427</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44432</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>44439</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>44442</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>44445</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44452</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>44463</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44467</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44469</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44470</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44476</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44476</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44482</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44483</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44494</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44505</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44515</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
         <v>44515</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>44517</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>44517</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>44529</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44529</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44529</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44532</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44543</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44546</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44551</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>44557</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44560</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44564</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44566</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44573</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44581</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44588</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44588</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44608</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44610</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>44614</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44619</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>44625</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44627</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44629</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25082,7 +25082,7 @@
         <v>44636</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25139,7 +25139,7 @@
         <v>44636</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>44636</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44655</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44659</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44662</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44670</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44677</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44678</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44683</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>44685</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>44692</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>44692</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>44700</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>44705</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>44712</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>44722</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>44740</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>44740</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>44746</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>44746</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>44774</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44776</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44776</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44781</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>44786</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>44798</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44799</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44799</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>44799</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>44804</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>44806</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>44809</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44810</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44816</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44817</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44820</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44831</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>44839</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44840</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44853</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44860</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44865</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44867</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44879</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44881</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44881</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44883</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44883</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>44883</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44896</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>44896</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44896</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>44899</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>44900</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44901</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44904</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44904</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44908</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>44910</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29241,7 +29241,7 @@
         <v>44916</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29298,7 +29298,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>44918</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         <v>44918</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>44925</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>44937</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>44939</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>44951</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>44956</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>44958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>44966</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29935,7 +29935,7 @@
         <v>44966</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29992,7 +29992,7 @@
         <v>44966</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30049,7 +30049,7 @@
         <v>44966</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30106,7 +30106,7 @@
         <v>44966</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30220,7 +30220,7 @@
         <v>44970</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30277,7 +30277,7 @@
         <v>44979</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30334,7 +30334,7 @@
         <v>44980</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>44980</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>44986</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         <v>44998</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30562,7 +30562,7 @@
         <v>45000</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>45008</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>45016</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30857,7 +30857,7 @@
         <v>45022</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30914,7 +30914,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30976,7 +30976,7 @@
         <v>45029</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31033,7 +31033,7 @@
         <v>45029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31090,7 +31090,7 @@
         <v>45036</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31147,7 +31147,7 @@
         <v>45040</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31204,7 +31204,7 @@
         <v>45040</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>45041</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>45041</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>45041</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>45041</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>45050</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>45054</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>45054</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>45054</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>45054</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>45069</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>45070</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>45071</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>45071</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32349,7 +32349,7 @@
         <v>45071</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32406,7 +32406,7 @@
         <v>45071</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32463,7 +32463,7 @@
         <v>45083</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32520,7 +32520,7 @@
         <v>45084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32577,7 +32577,7 @@
         <v>45084</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32634,7 +32634,7 @@
         <v>45084</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>45084</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>45085</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>45085</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>45090</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>45090</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>45090</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>45090</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>45091</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>45091</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>45093</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>45104</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>45105</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>45106</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>45107</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>45107</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45128</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>45142</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>45145</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>45149</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34126,7 +34126,7 @@
         <v>45152</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         <v>45152</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>45155</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34297,7 +34297,7 @@
         <v>45159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34354,7 +34354,7 @@
         <v>45161</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34411,7 +34411,7 @@
         <v>45162</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>45167</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>45188</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y582"/>
+  <dimension ref="A1:Y583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43418</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>44494</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>43483</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43418</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>44375</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>44740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44930</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>43418</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43418</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>44296</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44865</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>43376</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>43418</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43496</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>44970</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43348</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43353</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43374</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43376</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>43382</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43387</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43397</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43412</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43415</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43418</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43418</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43419</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43419</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43426</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43432</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43439</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43442</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43442</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43442</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>43468</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43475</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43475</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43509</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>43510</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>43517</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>43539</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         <v>43542</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43543</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43544</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43551</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43552</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43554</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43570</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>43570</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>43572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>43572</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43572</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>43573</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43588</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43588</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43589</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>43600</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43606</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43608</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43609</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43621</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43635</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43661</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>43668</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>43671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>43683</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43685</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43685</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43685</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43685</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43688</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43688</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43691</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>43703</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>43705</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>43705</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43713</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43717</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43718</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43718</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43724</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43725</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43725</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43725</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43739</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43747</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43755</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43761</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43763</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43763</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43766</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43768</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43768</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43769</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43770</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43770</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43770</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43770</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>43772</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>43774</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>43777</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>43777</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>43784</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>43784</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>43787</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>43794</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>43795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>43795</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>43810</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>43811</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>43811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>43815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>43815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43819</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43826</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>43826</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>43833</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>43838</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43840</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43843</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>43843</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>43844</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43850</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>43857</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>43858</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>43867</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>43867</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>43871</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>43872</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43872</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43872</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43885</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43886</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43888</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>43892</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>43895</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43896</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>43901</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>43902</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>43902</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43902</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43906</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43906</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43907</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43907</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43914</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43921</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43921</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43924</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43930</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43936</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43993</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43997</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43999</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44007</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>44019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>44020</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>44025</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15513,7 +15513,7 @@
         <v>44030</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15570,7 +15570,7 @@
         <v>44030</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44040</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44041</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44042</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>44042</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44047</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44048</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44050</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44053</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44054</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>44056</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44057</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>44062</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>44062</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>44064</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44067</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44067</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44069</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>44069</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>44083</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44083</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>44099</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>44109</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>44110</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44110</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44110</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44127</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>44131</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>44131</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>44131</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44133</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>44134</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>44137</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44144</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44144</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>44148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>44148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>44148</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>44151</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>44162</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>44166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>44166</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>44169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>44173</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>44175</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>44175</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>44179</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>44182</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>44182</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>44201</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44207</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44207</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44212</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44217</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44217</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44223</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44223</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44224</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44225</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44235</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44236</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44244</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44244</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>44244</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>44249</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>44257</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>44258</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>44258</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>44259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>44264</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44278</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>44286</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>44286</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44288</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44288</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>44290</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44320</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44329</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44342</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44356</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44357</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44357</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44357</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44369</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44369</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44369</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44375</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44375</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44376</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44377</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44377</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>44382</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>44383</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44403</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44404</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44410</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>44412</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44412</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44413</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22016,7 +22016,7 @@
         <v>44426</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>44426</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44426</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44427</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44432</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>44439</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>44442</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>44445</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44452</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>44463</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44467</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44469</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44470</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44476</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44476</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44482</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44483</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44494</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44505</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44515</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
         <v>44515</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>44517</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>44517</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>44529</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44529</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44529</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44532</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44543</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44546</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44551</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>44557</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44560</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44564</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44566</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44573</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44581</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44588</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44588</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44608</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44610</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>44614</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44619</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>44625</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44627</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44629</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25082,7 +25082,7 @@
         <v>44636</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25139,7 +25139,7 @@
         <v>44636</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>44636</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25253,7 +25253,7 @@
         <v>44655</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44659</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44662</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44670</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44677</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>44678</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44683</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>44685</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>44692</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>44692</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>44700</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>44705</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>44712</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>44722</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>44740</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>44740</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>44746</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>44746</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>44774</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>44776</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44776</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44781</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>44786</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>44798</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44799</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44799</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>44799</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>44804</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>44806</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>44809</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>44810</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44816</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44817</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44820</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44831</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>44839</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44840</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44853</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44860</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44865</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44867</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44879</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44881</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44881</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>44881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>44881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>44883</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44883</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28262,7 +28262,7 @@
         <v>44883</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>44896</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>44896</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28671,7 +28671,7 @@
         <v>44896</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>44899</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>44900</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44901</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44904</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28956,7 +28956,7 @@
         <v>44904</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>44908</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>44910</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29241,7 +29241,7 @@
         <v>44916</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29298,7 +29298,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>44918</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         <v>44918</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>44925</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>44937</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>44939</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>44951</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>44956</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>44958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>44966</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29935,7 +29935,7 @@
         <v>44966</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29992,7 +29992,7 @@
         <v>44966</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30049,7 +30049,7 @@
         <v>44966</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30106,7 +30106,7 @@
         <v>44966</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30220,7 +30220,7 @@
         <v>44970</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30277,7 +30277,7 @@
         <v>44979</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30334,7 +30334,7 @@
         <v>44980</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>44980</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>44986</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         <v>44998</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30562,7 +30562,7 @@
         <v>45000</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>45008</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>45016</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30857,7 +30857,7 @@
         <v>45022</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30914,7 +30914,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30976,7 +30976,7 @@
         <v>45029</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31033,7 +31033,7 @@
         <v>45029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31090,7 +31090,7 @@
         <v>45036</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31147,7 +31147,7 @@
         <v>45040</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31204,7 +31204,7 @@
         <v>45040</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>45041</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>45041</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>45041</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>45041</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>45050</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>45054</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>45054</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>45054</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>45054</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>45069</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>45070</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>45071</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>45071</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32349,7 +32349,7 @@
         <v>45071</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32406,7 +32406,7 @@
         <v>45071</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32463,7 +32463,7 @@
         <v>45083</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32520,7 +32520,7 @@
         <v>45084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32577,7 +32577,7 @@
         <v>45084</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32634,7 +32634,7 @@
         <v>45084</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>45084</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>45085</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>45085</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>45090</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>45090</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>45090</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>45090</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>45091</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>45091</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>45093</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>45104</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>45105</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>45106</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>45107</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>45107</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45128</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>45142</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>45145</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>45149</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34126,7 +34126,7 @@
         <v>45152</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         <v>45152</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>45155</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34297,7 +34297,7 @@
         <v>45159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34354,7 +34354,7 @@
         <v>45161</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34411,7 +34411,7 @@
         <v>45162</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>45167</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="R581" s="2" t="inlineStr"/>
     </row>
-    <row r="582">
+    <row r="582" ht="15" customHeight="1">
       <c r="A582" t="inlineStr">
         <is>
           <t>A 44006-2023</t>
@@ -34525,7 +34525,7 @@
         <v>45188</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34571,6 +34571,63 @@
         <v>0</v>
       </c>
       <c r="R582" s="2" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>A 44674-2023</t>
+        </is>
+      </c>
+      <c r="B583" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C583" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>EDA</t>
+        </is>
+      </c>
+      <c r="G583" t="n">
+        <v>1</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="n">
+        <v>0</v>
+      </c>
+      <c r="J583" t="n">
+        <v>0</v>
+      </c>
+      <c r="K583" t="n">
+        <v>0</v>
+      </c>
+      <c r="L583" t="n">
+        <v>0</v>
+      </c>
+      <c r="M583" t="n">
+        <v>0</v>
+      </c>
+      <c r="N583" t="n">
+        <v>0</v>
+      </c>
+      <c r="O583" t="n">
+        <v>0</v>
+      </c>
+      <c r="P583" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q583" t="n">
+        <v>0</v>
+      </c>
+      <c r="R583" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y583"/>
+  <dimension ref="A1:Y585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43418</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
         <v>7</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -627,11 +627,13 @@
 Tretåig hackspett
 Vedtrappmossa
 Blek stjärnmossa
+Dropptaggsvamp
 Kattfotslav
 Mindre märgborre
 Rostfläck
 Skuggblåslav
 Stor revmossa
+Vågbandad barkbock
 Vårärt</t>
         </is>
       </c>
@@ -670,7 +672,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +766,7 @@
         <v>44494</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +857,7 @@
         <v>43483</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -898,14 +900,15 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Gul taggsvamp
 Tretåig hackspett
-Vedtrappmossa</t>
+Vedtrappmossa
+Mörk husmossa</t>
         </is>
       </c>
       <c r="S5">
@@ -940,14 +943,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 63171-2018</t>
+          <t>A 63177-2018</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>43418</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -960,598 +963,601 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>18.5</v>
+        <v>3.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Korallblylav
+Vedticka
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 63177-2018.xlsx", "A 63177-2018")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 63177-2018.png", "A 63177-2018")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 63177-2018.docx", "A 63177-2018")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 63177-2018.docx", "A 63177-2018")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 63177-2018.docx", "A 63177-2018")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 63177-2018.docx", "A 63177-2018")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 36422-2021</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44375</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EDA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp
+Gul taggsvamp
+Orange taggsvamp
+Fällmossa</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 36422-2021.xlsx", "A 36422-2021")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 36422-2021.png", "A 36422-2021")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 36422-2021.docx", "A 36422-2021")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 36422-2021.docx", "A 36422-2021")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 36422-2021.docx", "A 36422-2021")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 36422-2021.docx", "A 36422-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 63171-2018</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>43418</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EDA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>2</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q8" t="n">
         <v>3</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Garnlav
 Purpurmylia</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 63171-2018.xlsx", "A 63171-2018")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 63171-2018.png", "A 63171-2018")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U8">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/knärot/A 63171-2018.png", "A 63171-2018")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 63171-2018.docx", "A 63171-2018")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 63171-2018.docx", "A 63171-2018")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 63171-2018.docx", "A 63171-2018")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 63171-2018.docx", "A 63171-2018")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 36377-2021</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>44375</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>EDA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C9" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EDA</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>0.9</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Vedtrappmossa
 Thomsons trägnagare
 Blåsippa</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 36377-2021.xlsx", "A 36377-2021")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 36377-2021.png", "A 36377-2021")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 36377-2021.docx", "A 36377-2021")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 36377-2021.docx", "A 36377-2021")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 36377-2021.docx", "A 36377-2021")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 36377-2021.docx", "A 36377-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 36422-2021</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44375</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EDA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 26898-2022</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44740</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>EDA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>3</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Dofttaggsvamp
-Gul taggsvamp
-Orange taggsvamp</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 36422-2021.xlsx", "A 36422-2021")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 36422-2021.png", "A 36422-2021")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 36422-2021.docx", "A 36422-2021")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 36422-2021.docx", "A 36422-2021")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 36422-2021.docx", "A 36422-2021")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 36422-2021.docx", "A 36422-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 26898-2022</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44740</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>EDA</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Vedskivlav
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 26898-2022.xlsx", "A 26898-2022")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 26898-2022.png", "A 26898-2022")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 26898-2022.docx", "A 26898-2022")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 26898-2022.docx", "A 26898-2022")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 26898-2022.docx", "A 26898-2022")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 26898-2022.docx", "A 26898-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 592-2023</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>44930</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>EDA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>EDA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>2.3</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>3</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>3</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Mindre hackspett
 Skogsklocka
 Spillkråka</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 592-2023.xlsx", "A 592-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 592-2023.png", "A 592-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 592-2023.docx", "A 592-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 592-2023.docx", "A 592-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 592-2023.docx", "A 592-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 592-2023.docx", "A 592-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 59351-2018</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>43418</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>EDA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>EDA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>0.6</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>2</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>2</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Tretåig hackspett
 Ullticka</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 59351-2018.xlsx", "A 59351-2018")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 59351-2018.png", "A 59351-2018")</f>
         <v/>
       </c>
-      <c r="U11">
+      <c r="U12">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/knärot/A 59351-2018.png", "A 59351-2018")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 59351-2018.docx", "A 59351-2018")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 59351-2018.docx", "A 59351-2018")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 59351-2018.docx", "A 59351-2018")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 59351-2018.docx", "A 59351-2018")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 63177-2018</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>43418</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>EDA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/artfynd/A 63177-2018.xlsx", "A 63177-2018")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/kartor/A 63177-2018.png", "A 63177-2018")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomål/A 63177-2018.docx", "A 63177-2018")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/klagomålsmail/A 63177-2018.docx", "A 63177-2018")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsyn/A 63177-2018.docx", "A 63177-2018")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_EDA/tillsynsmail/A 63177-2018.docx", "A 63177-2018")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1562,7 +1568,7 @@
         <v>44296</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1654,7 @@
         <v>44865</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1740,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1826,7 @@
         <v>43376</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1911,7 @@
         <v>43418</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1996,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2079,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2170,7 @@
         <v>43496</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,7 +2255,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2334,7 +2340,7 @@
         <v>44452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2419,7 +2425,7 @@
         <v>44970</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2504,7 +2510,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2561,7 +2567,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2618,7 +2624,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2675,7 +2681,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2732,7 +2738,7 @@
         <v>43348</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2789,7 +2795,7 @@
         <v>43353</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2846,7 +2852,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2903,7 +2909,7 @@
         <v>43374</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2960,7 +2966,7 @@
         <v>43376</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3017,7 +3023,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3079,7 +3085,7 @@
         <v>43382</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3136,7 +3142,7 @@
         <v>43387</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3193,7 +3199,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3250,7 +3256,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3307,7 +3313,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3364,7 +3370,7 @@
         <v>43397</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3421,7 +3427,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3478,7 +3484,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3535,7 +3541,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3592,7 +3598,7 @@
         <v>43412</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3649,7 +3655,7 @@
         <v>43415</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3706,7 +3712,7 @@
         <v>43418</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3763,7 +3769,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3820,7 +3826,7 @@
         <v>43418</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3877,7 +3883,7 @@
         <v>43419</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3934,7 +3940,7 @@
         <v>43419</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3991,7 +3997,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4048,7 +4054,7 @@
         <v>43426</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4105,7 +4111,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4162,7 +4168,7 @@
         <v>43432</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4219,7 +4225,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4276,7 +4282,7 @@
         <v>43439</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4333,7 +4339,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4390,7 +4396,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4447,7 +4453,7 @@
         <v>43442</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4504,7 +4510,7 @@
         <v>43442</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4561,7 +4567,7 @@
         <v>43442</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4618,7 +4624,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4675,7 +4681,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4732,7 +4738,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4789,7 +4795,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4846,7 +4852,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4903,7 +4909,7 @@
         <v>43468</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4960,7 +4966,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5017,7 +5023,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5074,7 +5080,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5131,7 +5137,7 @@
         <v>43475</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5188,7 +5194,7 @@
         <v>43475</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5245,7 +5251,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5302,7 +5308,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5359,7 +5365,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5416,7 +5422,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5473,7 +5479,7 @@
         <v>43488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5530,7 +5536,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5587,7 +5593,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5644,7 +5650,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5701,7 +5707,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5763,7 +5769,7 @@
         <v>43509</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5825,7 +5831,7 @@
         <v>43510</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5882,7 +5888,7 @@
         <v>43517</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5939,7 +5945,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5996,7 +6002,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6053,7 +6059,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6110,7 +6116,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6167,7 +6173,7 @@
         <v>43539</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6224,7 +6230,7 @@
         <v>43542</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6281,7 +6287,7 @@
         <v>43543</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6338,7 +6344,7 @@
         <v>43544</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6395,7 +6401,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6452,7 +6458,7 @@
         <v>43551</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6509,7 +6515,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6566,7 +6572,7 @@
         <v>43552</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6623,7 +6629,7 @@
         <v>43554</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6680,7 +6686,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6742,7 +6748,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6799,7 +6805,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6861,7 +6867,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6918,7 +6924,7 @@
         <v>43570</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6975,7 +6981,7 @@
         <v>43570</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7032,7 +7038,7 @@
         <v>43572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7089,7 +7095,7 @@
         <v>43572</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7146,7 +7152,7 @@
         <v>43572</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7203,7 +7209,7 @@
         <v>43573</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7260,7 +7266,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7317,7 +7323,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7379,7 +7385,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7436,7 +7442,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7493,7 +7499,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7550,7 +7556,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7607,7 +7613,7 @@
         <v>43588</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7664,7 +7670,7 @@
         <v>43588</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7721,7 +7727,7 @@
         <v>43589</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7778,7 +7784,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7835,7 +7841,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7892,7 +7898,7 @@
         <v>43600</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7949,7 +7955,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8006,7 +8012,7 @@
         <v>43606</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8063,7 +8069,7 @@
         <v>43608</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8120,7 +8126,7 @@
         <v>43609</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8177,7 +8183,7 @@
         <v>43621</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8234,7 +8240,7 @@
         <v>43635</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8291,7 +8297,7 @@
         <v>43661</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8348,7 +8354,7 @@
         <v>43668</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8405,7 +8411,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8462,7 +8468,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8519,7 +8525,7 @@
         <v>43671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8576,7 +8582,7 @@
         <v>43683</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8633,7 +8639,7 @@
         <v>43685</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8690,7 +8696,7 @@
         <v>43685</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8747,7 +8753,7 @@
         <v>43685</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8804,7 +8810,7 @@
         <v>43685</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8861,7 +8867,7 @@
         <v>43688</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8918,7 +8924,7 @@
         <v>43688</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8975,7 +8981,7 @@
         <v>43690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9032,7 +9038,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9089,7 +9095,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9146,7 +9152,7 @@
         <v>43690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9203,7 +9209,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9260,7 +9266,7 @@
         <v>43691</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9317,7 +9323,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9374,7 +9380,7 @@
         <v>43703</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9431,7 +9437,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9488,7 +9494,7 @@
         <v>43704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9545,7 +9551,7 @@
         <v>43705</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9602,7 +9608,7 @@
         <v>43705</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9659,7 +9665,7 @@
         <v>43713</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9716,7 +9722,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9773,7 +9779,7 @@
         <v>43717</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9830,7 +9836,7 @@
         <v>43718</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9887,7 +9893,7 @@
         <v>43718</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9944,7 +9950,7 @@
         <v>43724</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10001,7 +10007,7 @@
         <v>43725</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10058,7 +10064,7 @@
         <v>43725</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10115,7 +10121,7 @@
         <v>43725</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10172,7 +10178,7 @@
         <v>43739</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10229,7 +10235,7 @@
         <v>43747</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10286,7 +10292,7 @@
         <v>43755</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10343,7 +10349,7 @@
         <v>43761</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10400,7 +10406,7 @@
         <v>43763</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10457,7 +10463,7 @@
         <v>43763</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10514,7 +10520,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10571,7 +10577,7 @@
         <v>43766</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10628,7 +10634,7 @@
         <v>43768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10685,7 +10691,7 @@
         <v>43768</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10742,7 +10748,7 @@
         <v>43768</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10799,7 +10805,7 @@
         <v>43769</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10856,7 +10862,7 @@
         <v>43770</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10913,7 +10919,7 @@
         <v>43770</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10970,7 +10976,7 @@
         <v>43770</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11027,7 +11033,7 @@
         <v>43770</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11084,7 +11090,7 @@
         <v>43772</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11141,7 +11147,7 @@
         <v>43774</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11198,7 +11204,7 @@
         <v>43777</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11255,7 +11261,7 @@
         <v>43777</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11312,7 +11318,7 @@
         <v>43784</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11369,7 +11375,7 @@
         <v>43784</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11426,7 +11432,7 @@
         <v>43787</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11483,7 +11489,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11540,7 +11546,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11597,7 +11603,7 @@
         <v>43794</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11654,7 +11660,7 @@
         <v>43795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11711,7 +11717,7 @@
         <v>43795</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11768,7 +11774,7 @@
         <v>43810</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11825,7 +11831,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11882,7 +11888,7 @@
         <v>43811</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11939,7 +11945,7 @@
         <v>43811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11996,7 +12002,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12053,7 +12059,7 @@
         <v>43815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12110,7 +12116,7 @@
         <v>43815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12167,7 +12173,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12224,7 +12230,7 @@
         <v>43819</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12281,7 +12287,7 @@
         <v>43826</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12338,7 +12344,7 @@
         <v>43826</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12395,7 +12401,7 @@
         <v>43833</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12457,7 +12463,7 @@
         <v>43838</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12514,7 +12520,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12571,7 +12577,7 @@
         <v>43840</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12633,7 +12639,7 @@
         <v>43843</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12690,7 +12696,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12747,7 +12753,7 @@
         <v>43843</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12804,7 +12810,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12866,7 +12872,7 @@
         <v>43844</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12928,7 +12934,7 @@
         <v>43850</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12990,7 +12996,7 @@
         <v>43857</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13047,7 +13053,7 @@
         <v>43858</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13104,7 +13110,7 @@
         <v>43867</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13161,7 +13167,7 @@
         <v>43867</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13218,7 +13224,7 @@
         <v>43871</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13275,7 +13281,7 @@
         <v>43872</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13332,7 +13338,7 @@
         <v>43872</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13389,7 +13395,7 @@
         <v>43872</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13446,7 +13452,7 @@
         <v>43885</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13508,7 +13514,7 @@
         <v>43886</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13565,7 +13571,7 @@
         <v>43888</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13622,7 +13628,7 @@
         <v>43892</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13679,7 +13685,7 @@
         <v>43895</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13736,7 +13742,7 @@
         <v>43896</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13793,7 +13799,7 @@
         <v>43901</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13850,7 +13856,7 @@
         <v>43902</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13907,7 +13913,7 @@
         <v>43902</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13964,7 +13970,7 @@
         <v>43902</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14021,7 +14027,7 @@
         <v>43906</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14078,7 +14084,7 @@
         <v>43906</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14135,7 +14141,7 @@
         <v>43907</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14192,7 +14198,7 @@
         <v>43907</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14249,7 +14255,7 @@
         <v>43907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14306,7 +14312,7 @@
         <v>43908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14363,7 +14369,7 @@
         <v>43914</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14420,7 +14426,7 @@
         <v>43921</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14477,7 +14483,7 @@
         <v>43921</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14534,7 +14540,7 @@
         <v>43924</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14591,7 +14597,7 @@
         <v>43930</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14648,7 +14654,7 @@
         <v>43936</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14711,7 @@
         <v>43949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14762,7 +14768,7 @@
         <v>43949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14819,7 +14825,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14876,7 +14882,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14933,7 +14939,7 @@
         <v>43993</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14990,7 +14996,7 @@
         <v>43997</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15047,7 +15053,7 @@
         <v>43999</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15104,7 +15110,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15161,7 +15167,7 @@
         <v>44007</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15223,7 +15229,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15280,7 +15286,7 @@
         <v>44019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15342,7 +15348,7 @@
         <v>44020</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15399,7 +15405,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15456,7 +15462,7 @@
         <v>44025</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15513,7 +15519,7 @@
         <v>44030</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15570,7 +15576,7 @@
         <v>44030</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15627,7 +15633,7 @@
         <v>44040</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15684,7 +15690,7 @@
         <v>44041</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15741,7 +15747,7 @@
         <v>44042</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15798,7 +15804,7 @@
         <v>44042</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15855,7 +15861,7 @@
         <v>44047</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15912,7 +15918,7 @@
         <v>44048</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15969,7 +15975,7 @@
         <v>44050</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16031,7 +16037,7 @@
         <v>44053</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16088,7 +16094,7 @@
         <v>44054</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16145,7 +16151,7 @@
         <v>44056</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16202,7 +16208,7 @@
         <v>44057</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16259,7 +16265,7 @@
         <v>44062</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16316,7 +16322,7 @@
         <v>44062</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16373,7 +16379,7 @@
         <v>44064</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16430,7 +16436,7 @@
         <v>44067</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16487,7 +16493,7 @@
         <v>44067</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16544,7 +16550,7 @@
         <v>44069</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16601,7 +16607,7 @@
         <v>44069</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16658,7 +16664,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16715,7 +16721,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16772,7 +16778,7 @@
         <v>44083</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16829,7 +16835,7 @@
         <v>44083</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16886,7 +16892,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16943,7 +16949,7 @@
         <v>44099</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17000,7 +17006,7 @@
         <v>44109</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17057,7 +17063,7 @@
         <v>44110</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17114,7 +17120,7 @@
         <v>44110</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17171,7 +17177,7 @@
         <v>44110</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17228,7 +17234,7 @@
         <v>44127</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17285,7 +17291,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17342,7 +17348,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17399,7 +17405,7 @@
         <v>44131</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17456,7 +17462,7 @@
         <v>44131</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17513,7 +17519,7 @@
         <v>44131</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17570,7 +17576,7 @@
         <v>44133</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17627,7 +17633,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17684,7 +17690,7 @@
         <v>44134</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17741,7 +17747,7 @@
         <v>44137</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17798,7 +17804,7 @@
         <v>44144</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17855,7 +17861,7 @@
         <v>44144</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17912,7 +17918,7 @@
         <v>44148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17969,7 +17975,7 @@
         <v>44148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18026,7 +18032,7 @@
         <v>44148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18083,7 +18089,7 @@
         <v>44148</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18140,7 +18146,7 @@
         <v>44148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18197,7 +18203,7 @@
         <v>44151</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18254,7 +18260,7 @@
         <v>44162</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18311,7 +18317,7 @@
         <v>44166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18368,7 +18374,7 @@
         <v>44166</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18425,7 +18431,7 @@
         <v>44169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18482,7 +18488,7 @@
         <v>44173</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18539,7 +18545,7 @@
         <v>44175</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18596,7 +18602,7 @@
         <v>44175</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18653,7 +18659,7 @@
         <v>44179</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18710,7 +18716,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18767,7 +18773,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18824,7 +18830,7 @@
         <v>44182</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18881,7 +18887,7 @@
         <v>44182</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18938,7 +18944,7 @@
         <v>44201</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18995,7 +19001,7 @@
         <v>44207</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19052,7 +19058,7 @@
         <v>44207</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19109,7 +19115,7 @@
         <v>44212</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19166,7 +19172,7 @@
         <v>44217</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19223,7 +19229,7 @@
         <v>44217</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19280,7 +19286,7 @@
         <v>44223</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19337,7 +19343,7 @@
         <v>44223</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19394,7 +19400,7 @@
         <v>44224</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19451,7 +19457,7 @@
         <v>44225</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19508,7 +19514,7 @@
         <v>44235</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19565,7 +19571,7 @@
         <v>44236</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19622,7 +19628,7 @@
         <v>44244</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19679,7 +19685,7 @@
         <v>44244</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19736,7 +19742,7 @@
         <v>44244</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19793,7 +19799,7 @@
         <v>44249</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19850,7 +19856,7 @@
         <v>44257</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19907,7 +19913,7 @@
         <v>44258</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19964,7 +19970,7 @@
         <v>44258</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20021,7 +20027,7 @@
         <v>44259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20078,7 +20084,7 @@
         <v>44264</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20135,7 +20141,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20192,7 +20198,7 @@
         <v>44278</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20249,7 +20255,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20306,7 +20312,7 @@
         <v>44286</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20363,7 +20369,7 @@
         <v>44286</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20420,7 +20426,7 @@
         <v>44288</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20477,7 +20483,7 @@
         <v>44288</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20534,7 +20540,7 @@
         <v>44290</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20591,7 +20597,7 @@
         <v>44320</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20648,7 +20654,7 @@
         <v>44329</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20705,7 +20711,7 @@
         <v>44342</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20762,7 +20768,7 @@
         <v>44356</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20819,7 +20825,7 @@
         <v>44357</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20876,7 +20882,7 @@
         <v>44357</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20933,7 +20939,7 @@
         <v>44357</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20990,7 +20996,7 @@
         <v>44369</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21047,7 +21053,7 @@
         <v>44369</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21104,7 +21110,7 @@
         <v>44369</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21161,7 +21167,7 @@
         <v>44375</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21218,7 +21224,7 @@
         <v>44375</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21275,7 +21281,7 @@
         <v>44376</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21332,7 +21338,7 @@
         <v>44377</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21389,7 +21395,7 @@
         <v>44377</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21446,7 +21452,7 @@
         <v>44382</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21503,7 +21509,7 @@
         <v>44383</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21560,7 +21566,7 @@
         <v>44403</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21617,7 +21623,7 @@
         <v>44404</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21674,7 +21680,7 @@
         <v>44410</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21731,7 +21737,7 @@
         <v>44412</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21788,7 +21794,7 @@
         <v>44412</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21845,7 +21851,7 @@
         <v>44413</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21902,7 +21908,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21959,7 +21965,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22016,7 +22022,7 @@
         <v>44426</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22073,7 +22079,7 @@
         <v>44426</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22135,7 +22141,7 @@
         <v>44426</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22192,7 +22198,7 @@
         <v>44427</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22249,7 +22255,7 @@
         <v>44432</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22306,7 +22312,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22363,7 +22369,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22420,7 +22426,7 @@
         <v>44439</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22477,7 +22483,7 @@
         <v>44442</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22534,7 +22540,7 @@
         <v>44445</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22591,7 +22597,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22648,7 +22654,7 @@
         <v>44452</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22705,7 +22711,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22762,7 +22768,7 @@
         <v>44463</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22824,7 +22830,7 @@
         <v>44467</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22892,7 @@
         <v>44469</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22949,7 @@
         <v>44470</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23006,7 @@
         <v>44476</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23062,7 +23068,7 @@
         <v>44476</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23124,7 +23130,7 @@
         <v>44482</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23181,7 +23187,7 @@
         <v>44483</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23238,7 +23244,7 @@
         <v>44494</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23295,7 +23301,7 @@
         <v>44505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23352,7 +23358,7 @@
         <v>44505</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23409,7 +23415,7 @@
         <v>44515</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23466,7 +23472,7 @@
         <v>44515</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23528,7 +23534,7 @@
         <v>44517</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23585,7 +23591,7 @@
         <v>44517</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23642,7 +23648,7 @@
         <v>44529</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23699,7 +23705,7 @@
         <v>44529</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23756,7 +23762,7 @@
         <v>44529</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23813,7 +23819,7 @@
         <v>44532</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23870,7 +23876,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23927,7 +23933,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23984,7 +23990,7 @@
         <v>44543</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24041,7 +24047,7 @@
         <v>44546</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24098,7 +24104,7 @@
         <v>44551</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24155,7 +24161,7 @@
         <v>44557</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24212,7 +24218,7 @@
         <v>44560</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24274,7 +24280,7 @@
         <v>44564</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24331,7 +24337,7 @@
         <v>44566</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24388,7 +24394,7 @@
         <v>44573</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24445,7 +24451,7 @@
         <v>44581</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24502,7 +24508,7 @@
         <v>44588</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24559,7 +24565,7 @@
         <v>44588</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24616,7 +24622,7 @@
         <v>44608</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24678,7 +24684,7 @@
         <v>44610</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24735,7 +24741,7 @@
         <v>44614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24792,7 +24798,7 @@
         <v>44614</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24849,7 +24855,7 @@
         <v>44619</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24906,7 +24912,7 @@
         <v>44625</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24963,7 +24969,7 @@
         <v>44627</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25025,7 +25031,7 @@
         <v>44629</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25082,7 +25088,7 @@
         <v>44636</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25139,7 +25145,7 @@
         <v>44636</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25196,7 +25202,7 @@
         <v>44636</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25253,7 +25259,7 @@
         <v>44655</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25315,7 +25321,7 @@
         <v>44659</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25372,7 +25378,7 @@
         <v>44662</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25429,7 +25435,7 @@
         <v>44670</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25486,7 +25492,7 @@
         <v>44677</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25543,7 +25549,7 @@
         <v>44678</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25600,7 +25606,7 @@
         <v>44683</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25657,7 +25663,7 @@
         <v>44685</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25714,7 +25720,7 @@
         <v>44692</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25771,7 +25777,7 @@
         <v>44692</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25828,7 +25834,7 @@
         <v>44700</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25890,7 +25896,7 @@
         <v>44705</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25947,7 +25953,7 @@
         <v>44712</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26004,7 +26010,7 @@
         <v>44722</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26061,7 +26067,7 @@
         <v>44740</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26118,7 +26124,7 @@
         <v>44740</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26175,7 +26181,7 @@
         <v>44746</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26232,7 +26238,7 @@
         <v>44746</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26289,7 +26295,7 @@
         <v>44774</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26351,7 +26357,7 @@
         <v>44776</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26413,7 +26419,7 @@
         <v>44776</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26475,7 +26481,7 @@
         <v>44781</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26532,7 +26538,7 @@
         <v>44786</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26589,7 +26595,7 @@
         <v>44798</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26646,7 +26652,7 @@
         <v>44799</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26703,7 +26709,7 @@
         <v>44799</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26760,7 +26766,7 @@
         <v>44799</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26822,7 +26828,7 @@
         <v>44804</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26879,7 +26885,7 @@
         <v>44806</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26936,7 +26942,7 @@
         <v>44809</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26993,7 +26999,7 @@
         <v>44810</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27050,7 +27056,7 @@
         <v>44816</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27107,7 +27113,7 @@
         <v>44817</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27164,7 +27170,7 @@
         <v>44820</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27221,7 +27227,7 @@
         <v>44831</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27283,7 +27289,7 @@
         <v>44839</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27340,7 +27346,7 @@
         <v>44840</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27397,7 +27403,7 @@
         <v>44852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27454,7 +27460,7 @@
         <v>44853</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27511,7 +27517,7 @@
         <v>44860</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27568,7 +27574,7 @@
         <v>44865</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27625,7 +27631,7 @@
         <v>44867</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27682,7 +27688,7 @@
         <v>44874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27739,7 +27745,7 @@
         <v>44874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27801,7 +27807,7 @@
         <v>44879</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27858,7 +27864,7 @@
         <v>44881</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27915,7 +27921,7 @@
         <v>44881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27972,7 +27978,7 @@
         <v>44881</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28034,7 +28040,7 @@
         <v>44881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28091,7 +28097,7 @@
         <v>44881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28148,7 +28154,7 @@
         <v>44883</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28205,7 +28211,7 @@
         <v>44883</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28262,7 +28268,7 @@
         <v>44883</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28324,7 +28330,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28381,7 +28387,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28438,7 +28444,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28500,7 +28506,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28557,7 +28563,7 @@
         <v>44896</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28614,7 +28620,7 @@
         <v>44896</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28671,7 +28677,7 @@
         <v>44896</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28728,7 +28734,7 @@
         <v>44899</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28785,7 +28791,7 @@
         <v>44900</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28842,7 +28848,7 @@
         <v>44901</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28899,7 +28905,7 @@
         <v>44904</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28956,7 +28962,7 @@
         <v>44904</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29013,7 +29019,7 @@
         <v>44908</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29070,7 +29076,7 @@
         <v>44910</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29127,7 +29133,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29184,7 +29190,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29241,7 +29247,7 @@
         <v>44916</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29298,7 +29304,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29360,7 +29366,7 @@
         <v>44918</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29417,7 +29423,7 @@
         <v>44918</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29474,7 +29480,7 @@
         <v>44925</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29531,7 +29537,7 @@
         <v>44937</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29588,7 +29594,7 @@
         <v>44939</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29645,7 +29651,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29702,7 +29708,7 @@
         <v>44951</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29759,7 +29765,7 @@
         <v>44956</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29816,7 +29822,7 @@
         <v>44958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29873,7 +29879,7 @@
         <v>44966</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29935,7 +29941,7 @@
         <v>44966</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29992,7 +29998,7 @@
         <v>44966</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30049,7 +30055,7 @@
         <v>44966</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30106,7 +30112,7 @@
         <v>44966</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30163,7 +30169,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30220,7 +30226,7 @@
         <v>44970</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30277,7 +30283,7 @@
         <v>44979</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30334,7 +30340,7 @@
         <v>44980</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30391,7 +30397,7 @@
         <v>44980</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30448,7 +30454,7 @@
         <v>44986</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30505,7 +30511,7 @@
         <v>44998</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30562,7 +30568,7 @@
         <v>45000</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30619,7 +30625,7 @@
         <v>45008</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30681,7 +30687,7 @@
         <v>45016</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30743,7 +30749,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30800,7 +30806,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30857,7 +30863,7 @@
         <v>45022</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30914,7 +30920,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30976,7 +30982,7 @@
         <v>45029</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31033,7 +31039,7 @@
         <v>45029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31090,7 +31096,7 @@
         <v>45036</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31147,7 +31153,7 @@
         <v>45040</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31204,7 +31210,7 @@
         <v>45040</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31261,7 +31267,7 @@
         <v>45041</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31323,7 +31329,7 @@
         <v>45041</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31380,7 +31386,7 @@
         <v>45041</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31437,7 +31443,7 @@
         <v>45041</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31494,7 +31500,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31551,7 +31557,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31608,7 +31614,7 @@
         <v>45050</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31665,7 +31671,7 @@
         <v>45054</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31722,7 +31728,7 @@
         <v>45054</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31779,7 +31785,7 @@
         <v>45054</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31836,7 +31842,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31893,7 +31899,7 @@
         <v>45054</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31950,7 +31956,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32007,7 +32013,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32064,7 +32070,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32121,7 +32127,7 @@
         <v>45069</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32178,7 +32184,7 @@
         <v>45070</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32235,7 +32241,7 @@
         <v>45071</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32292,7 +32298,7 @@
         <v>45071</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32349,7 +32355,7 @@
         <v>45071</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32406,7 +32412,7 @@
         <v>45071</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32463,7 +32469,7 @@
         <v>45083</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32520,7 +32526,7 @@
         <v>45084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32577,7 +32583,7 @@
         <v>45084</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32634,7 +32640,7 @@
         <v>45084</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32696,7 +32702,7 @@
         <v>45084</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32753,7 +32759,7 @@
         <v>45085</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32810,7 +32816,7 @@
         <v>45085</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32867,7 +32873,7 @@
         <v>45090</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32924,7 +32930,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32981,7 +32987,7 @@
         <v>45090</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33038,7 +33044,7 @@
         <v>45090</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33095,7 +33101,7 @@
         <v>45090</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33152,7 +33158,7 @@
         <v>45091</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33209,7 +33215,7 @@
         <v>45091</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33266,7 +33272,7 @@
         <v>45093</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33323,7 +33329,7 @@
         <v>45104</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33380,7 +33386,7 @@
         <v>45105</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33437,7 +33443,7 @@
         <v>45106</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33494,7 +33500,7 @@
         <v>45107</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33551,7 +33557,7 @@
         <v>45107</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33608,7 +33614,7 @@
         <v>45128</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33665,7 +33671,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33722,7 +33728,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33779,7 +33785,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33836,7 +33842,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33893,7 +33899,7 @@
         <v>45142</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33950,7 +33956,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34007,7 +34013,7 @@
         <v>45145</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34064,7 +34070,7 @@
         <v>45149</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34126,7 +34132,7 @@
         <v>45152</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34183,7 +34189,7 @@
         <v>45152</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34240,7 +34246,7 @@
         <v>45155</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34297,7 +34303,7 @@
         <v>45159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34354,7 +34360,7 @@
         <v>45161</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34411,7 +34417,7 @@
         <v>45162</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34468,7 +34474,7 @@
         <v>45167</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34525,7 +34531,7 @@
         <v>45188</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34572,7 +34578,7 @@
       </c>
       <c r="R582" s="2" t="inlineStr"/>
     </row>
-    <row r="583">
+    <row r="583" ht="15" customHeight="1">
       <c r="A583" t="inlineStr">
         <is>
           <t>A 44674-2023</t>
@@ -34582,7 +34588,7 @@
         <v>45189</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34628,6 +34634,120 @@
         <v>0</v>
       </c>
       <c r="R583" s="2" t="inlineStr"/>
+    </row>
+    <row r="584" ht="15" customHeight="1">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>A 46297-2023</t>
+        </is>
+      </c>
+      <c r="B584" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C584" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>EDA</t>
+        </is>
+      </c>
+      <c r="G584" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="n">
+        <v>0</v>
+      </c>
+      <c r="J584" t="n">
+        <v>0</v>
+      </c>
+      <c r="K584" t="n">
+        <v>0</v>
+      </c>
+      <c r="L584" t="n">
+        <v>0</v>
+      </c>
+      <c r="M584" t="n">
+        <v>0</v>
+      </c>
+      <c r="N584" t="n">
+        <v>0</v>
+      </c>
+      <c r="O584" t="n">
+        <v>0</v>
+      </c>
+      <c r="P584" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q584" t="n">
+        <v>0</v>
+      </c>
+      <c r="R584" s="2" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>A 46340-2023</t>
+        </is>
+      </c>
+      <c r="B585" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C585" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>EDA</t>
+        </is>
+      </c>
+      <c r="G585" t="n">
+        <v>5</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="n">
+        <v>0</v>
+      </c>
+      <c r="J585" t="n">
+        <v>0</v>
+      </c>
+      <c r="K585" t="n">
+        <v>0</v>
+      </c>
+      <c r="L585" t="n">
+        <v>0</v>
+      </c>
+      <c r="M585" t="n">
+        <v>0</v>
+      </c>
+      <c r="N585" t="n">
+        <v>0</v>
+      </c>
+      <c r="O585" t="n">
+        <v>0</v>
+      </c>
+      <c r="P585" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q585" t="n">
+        <v>0</v>
+      </c>
+      <c r="R585" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -572,7 +572,7 @@
         <v>43418</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44494</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43483</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>43418</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43418</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44375</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44740</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43418</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44296</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44865</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43376</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43418</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43496</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44970</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43348</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43353</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43374</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43376</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43382</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43387</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43397</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>43412</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>43415</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>43418</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>43418</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43419</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43419</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>43426</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>43432</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>43439</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43442</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43442</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43442</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43468</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43475</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43475</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43509</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43510</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43517</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43539</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43542</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43543</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43544</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43551</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43552</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43554</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43570</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43570</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43572</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43572</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>43573</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43588</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>43588</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43589</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43600</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43606</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43608</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43609</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43621</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43635</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43661</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43668</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43683</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43685</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43685</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43685</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43685</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43688</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43688</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>43690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>43690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43691</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>43703</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43705</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43705</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43713</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43717</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43718</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43718</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43724</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43725</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43725</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43725</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43739</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43747</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43755</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43761</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43763</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>43763</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43766</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43768</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43768</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43769</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>43770</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43770</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43770</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43770</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>43772</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>43774</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43777</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43777</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43784</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43784</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43787</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43794</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43795</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43810</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>43811</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>43811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>43815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>43819</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43826</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43826</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43833</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>43838</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>43840</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>43843</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>43843</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>43844</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>43850</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>43857</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>43858</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>43867</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>43867</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>43871</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43872</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>43872</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>43872</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>43885</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>43886</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>43888</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>43892</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>43895</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>43896</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>43901</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>43902</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>43902</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>43902</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>43906</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>43906</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>43907</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>43907</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>43907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>43908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>43914</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>43921</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         <v>43921</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>43924</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>43930</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>43936</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>43949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>43949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>43993</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>43997</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>43999</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44007</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44020</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44025</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44030</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44030</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44040</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44041</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44042</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44042</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44047</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44048</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44050</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44053</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44054</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44056</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44057</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44062</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44062</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44064</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44067</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44067</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44069</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44069</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44083</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44083</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44099</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>44109</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
         <v>44110</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>44110</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>44110</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>44127</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         <v>44131</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17462,7 +17462,7 @@
         <v>44131</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17519,7 +17519,7 @@
         <v>44131</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44133</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>44134</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>44137</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44144</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44144</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44148</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44151</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>44162</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>44166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>44166</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44173</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44175</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>44175</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>44179</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>44182</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>44182</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44201</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44207</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>44207</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19115,7 +19115,7 @@
         <v>44212</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44217</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44217</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19286,7 +19286,7 @@
         <v>44223</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>44223</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>44224</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44225</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>44235</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44236</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44244</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>44244</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19742,7 +19742,7 @@
         <v>44244</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>44249</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19856,7 +19856,7 @@
         <v>44257</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
         <v>44258</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19970,7 +19970,7 @@
         <v>44258</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>44259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20084,7 +20084,7 @@
         <v>44264</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>44278</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20255,7 +20255,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>44286</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>44286</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>44288</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>44288</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>44290</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>44320</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>44329</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>44342</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44356</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44357</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44357</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>44357</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>44369</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>44369</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>44369</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>44375</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>44375</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44376</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>44377</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44377</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44382</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44383</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44403</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>44404</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44410</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44412</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44412</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44413</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44426</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>44426</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44426</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44427</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44432</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>44439</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>44442</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>44445</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>44452</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>44463</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>44467</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44469</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>44470</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44476</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>44476</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44482</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44483</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44494</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>44505</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44515</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>44515</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44517</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44517</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>44529</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>44529</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44529</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44532</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23990,7 +23990,7 @@
         <v>44543</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>44546</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>44551</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
         <v>44557</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>44560</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44564</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44566</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44573</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44581</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44588</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>44588</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44608</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44610</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44614</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44619</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44625</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>44627</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>44629</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>44636</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>44636</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>44636</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>44655</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>44659</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44662</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>44670</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25492,7 +25492,7 @@
         <v>44677</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25549,7 +25549,7 @@
         <v>44678</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>44683</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>44685</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>44692</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25777,7 +25777,7 @@
         <v>44692</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44700</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44705</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25953,7 +25953,7 @@
         <v>44712</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44722</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26067,7 +26067,7 @@
         <v>44740</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>44740</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44746</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>44746</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26295,7 +26295,7 @@
         <v>44774</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>44776</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>44776</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44781</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44786</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44798</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44799</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>44799</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26766,7 +26766,7 @@
         <v>44799</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44804</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44806</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44809</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44810</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44816</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44817</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44820</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44831</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44839</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>44840</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>44852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>44853</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>44860</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>44865</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>44867</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>44874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27807,7 +27807,7 @@
         <v>44879</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27864,7 +27864,7 @@
         <v>44881</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27921,7 +27921,7 @@
         <v>44881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>44881</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>44881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44883</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>44883</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>44883</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28563,7 +28563,7 @@
         <v>44896</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>44896</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28677,7 +28677,7 @@
         <v>44896</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>44899</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44900</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>44901</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44904</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>44904</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>44908</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29076,7 +29076,7 @@
         <v>44910</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29190,7 +29190,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>44916</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44918</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>44918</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>44925</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44937</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44939</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29708,7 +29708,7 @@
         <v>44951</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29765,7 +29765,7 @@
         <v>44956</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29822,7 +29822,7 @@
         <v>44958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44966</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44966</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29998,7 +29998,7 @@
         <v>44966</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30055,7 +30055,7 @@
         <v>44966</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>44966</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         <v>44970</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30283,7 +30283,7 @@
         <v>44979</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30340,7 +30340,7 @@
         <v>44980</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>44980</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44986</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>44998</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>45000</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>45008</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>45016</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45022</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45029</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45036</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45040</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45040</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>45041</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45041</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45041</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45041</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45050</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45054</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45054</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45054</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45054</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31956,7 +31956,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32070,7 +32070,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32127,7 +32127,7 @@
         <v>45069</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32184,7 +32184,7 @@
         <v>45070</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>45071</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>45071</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32355,7 +32355,7 @@
         <v>45071</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>45071</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32469,7 +32469,7 @@
         <v>45083</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32526,7 +32526,7 @@
         <v>45084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32583,7 +32583,7 @@
         <v>45084</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>45084</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32702,7 +32702,7 @@
         <v>45084</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>45085</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32816,7 +32816,7 @@
         <v>45085</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32873,7 +32873,7 @@
         <v>45090</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32930,7 +32930,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32987,7 +32987,7 @@
         <v>45090</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33044,7 +33044,7 @@
         <v>45090</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>45090</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33158,7 +33158,7 @@
         <v>45091</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>45091</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>45093</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>45104</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>45105</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>45106</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>45107</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>45107</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>45128</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>45142</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>45145</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>45149</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45152</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45152</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45155</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45161</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45162</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45167</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45188</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45189</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45197</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>45197</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -572,7 +572,7 @@
         <v>43418</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44494</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43483</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>43418</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43418</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44375</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44740</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43418</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44296</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44865</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43376</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43418</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43496</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44970</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43348</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43353</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43374</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43376</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43382</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43387</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43397</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>43412</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>43415</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>43418</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>43418</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43419</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43419</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>43426</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>43432</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>43439</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43442</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43442</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43442</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43468</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43475</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43475</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43509</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43510</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43517</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43539</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43542</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43543</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43544</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43551</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43552</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43554</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43570</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43570</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43572</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43572</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>43573</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43588</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>43588</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43589</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43600</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43606</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43608</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43609</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43621</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43635</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43661</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43668</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43683</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43685</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43685</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43685</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43685</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43688</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43688</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>43690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>43690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43691</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>43703</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43705</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43705</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43713</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43717</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43718</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43718</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43724</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43725</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43725</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43725</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43739</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43747</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43755</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43761</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43763</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>43763</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43766</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43768</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43768</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43769</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>43770</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43770</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43770</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43770</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>43772</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>43774</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43777</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43777</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43784</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43784</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43787</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43794</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43795</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43810</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>43811</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>43811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>43815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>43819</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43826</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43826</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43833</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>43838</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>43840</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>43843</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>43843</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>43844</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>43850</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>43857</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>43858</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>43867</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>43867</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>43871</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43872</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>43872</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>43872</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>43885</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>43886</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>43888</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>43892</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>43895</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>43896</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>43901</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>43902</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>43902</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>43902</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>43906</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>43906</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>43907</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>43907</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>43907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>43908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>43914</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>43921</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         <v>43921</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>43924</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>43930</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>43936</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>43949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>43949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>43993</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>43997</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>43999</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44007</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44020</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44025</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44030</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44030</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44040</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44041</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44042</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44042</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44047</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44048</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44050</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44053</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44054</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44056</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44057</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44062</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44062</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44064</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44067</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44067</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44069</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44069</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44083</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44083</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44099</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>44109</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
         <v>44110</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>44110</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>44110</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>44127</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         <v>44131</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17462,7 +17462,7 @@
         <v>44131</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17519,7 +17519,7 @@
         <v>44131</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44133</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>44134</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>44137</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44144</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44144</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44148</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44151</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>44162</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>44166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>44166</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44173</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44175</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>44175</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>44179</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>44182</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>44182</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44201</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44207</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>44207</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19115,7 +19115,7 @@
         <v>44212</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44217</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44217</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19286,7 +19286,7 @@
         <v>44223</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>44223</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>44224</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44225</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>44235</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44236</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44244</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>44244</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19742,7 +19742,7 @@
         <v>44244</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>44249</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19856,7 +19856,7 @@
         <v>44257</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
         <v>44258</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19970,7 +19970,7 @@
         <v>44258</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>44259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20084,7 +20084,7 @@
         <v>44264</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>44278</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20255,7 +20255,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>44286</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>44286</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>44288</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>44288</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>44290</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>44320</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>44329</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>44342</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44356</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44357</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44357</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>44357</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>44369</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>44369</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>44369</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>44375</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>44375</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44376</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>44377</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44377</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44382</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44383</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44403</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>44404</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44410</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44412</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44412</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44413</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44426</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>44426</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44426</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44427</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44432</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>44439</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>44442</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>44445</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>44452</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>44463</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>44467</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44469</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>44470</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44476</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>44476</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44482</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44483</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44494</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>44505</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44515</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>44515</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44517</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44517</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>44529</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>44529</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44529</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44532</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23990,7 +23990,7 @@
         <v>44543</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>44546</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>44551</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
         <v>44557</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>44560</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44564</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44566</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44573</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44581</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44588</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>44588</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44608</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44610</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44614</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44619</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44625</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>44627</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>44629</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>44636</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>44636</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>44636</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>44655</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>44659</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44662</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>44670</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25492,7 +25492,7 @@
         <v>44677</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25549,7 +25549,7 @@
         <v>44678</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>44683</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>44685</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>44692</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25777,7 +25777,7 @@
         <v>44692</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44700</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44705</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25953,7 +25953,7 @@
         <v>44712</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44722</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26067,7 +26067,7 @@
         <v>44740</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>44740</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44746</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>44746</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26295,7 +26295,7 @@
         <v>44774</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>44776</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>44776</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44781</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44786</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44798</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44799</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>44799</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26766,7 +26766,7 @@
         <v>44799</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44804</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44806</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44809</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44810</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44816</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44817</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44820</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44831</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44839</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>44840</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>44852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>44853</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>44860</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>44865</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>44867</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>44874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27807,7 +27807,7 @@
         <v>44879</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27864,7 +27864,7 @@
         <v>44881</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27921,7 +27921,7 @@
         <v>44881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>44881</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>44881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44883</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>44883</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>44883</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28563,7 +28563,7 @@
         <v>44896</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>44896</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28677,7 +28677,7 @@
         <v>44896</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>44899</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44900</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>44901</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44904</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>44904</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>44908</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29076,7 +29076,7 @@
         <v>44910</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29190,7 +29190,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>44916</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44918</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>44918</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>44925</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44937</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44939</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29708,7 +29708,7 @@
         <v>44951</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29765,7 +29765,7 @@
         <v>44956</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29822,7 +29822,7 @@
         <v>44958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44966</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44966</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29998,7 +29998,7 @@
         <v>44966</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30055,7 +30055,7 @@
         <v>44966</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>44966</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         <v>44970</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30283,7 +30283,7 @@
         <v>44979</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30340,7 +30340,7 @@
         <v>44980</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>44980</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44986</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>44998</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>45000</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>45008</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>45016</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45022</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45029</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45036</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45040</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45040</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>45041</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45041</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45041</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45041</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45050</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45054</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45054</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45054</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45054</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31956,7 +31956,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32070,7 +32070,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32127,7 +32127,7 @@
         <v>45069</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32184,7 +32184,7 @@
         <v>45070</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>45071</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>45071</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32355,7 +32355,7 @@
         <v>45071</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>45071</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32469,7 +32469,7 @@
         <v>45083</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32526,7 +32526,7 @@
         <v>45084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32583,7 +32583,7 @@
         <v>45084</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>45084</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32702,7 +32702,7 @@
         <v>45084</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>45085</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32816,7 +32816,7 @@
         <v>45085</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32873,7 +32873,7 @@
         <v>45090</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32930,7 +32930,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32987,7 +32987,7 @@
         <v>45090</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33044,7 +33044,7 @@
         <v>45090</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>45090</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33158,7 +33158,7 @@
         <v>45091</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>45091</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>45093</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>45104</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>45105</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>45106</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>45107</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>45107</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>45128</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>45142</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>45145</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>45149</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45152</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45152</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45155</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45161</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45162</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45167</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45188</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45189</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45197</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>45197</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -572,7 +572,7 @@
         <v>43418</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44494</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43483</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>43418</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43418</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44375</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44740</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43418</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44296</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44865</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43376</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43418</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43496</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44970</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43348</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43353</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43374</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43376</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43382</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43387</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43397</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>43412</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>43415</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>43418</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>43418</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43419</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43419</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>43426</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>43432</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>43439</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43442</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43442</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43442</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43468</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43475</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43475</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43509</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43510</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43517</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43539</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43542</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43543</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43544</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43551</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43552</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43554</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43570</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43570</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43572</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43572</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>43573</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43588</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>43588</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43589</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43600</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43606</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43608</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43609</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43621</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43635</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43661</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43668</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43683</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43685</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43685</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43685</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43685</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43688</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43688</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>43690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>43690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43691</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>43703</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43705</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43705</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43713</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43717</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43718</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43718</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43724</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43725</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43725</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43725</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43739</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43747</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43755</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43761</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43763</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>43763</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43766</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43768</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43768</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43769</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>43770</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43770</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43770</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43770</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>43772</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>43774</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43777</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43777</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43784</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43784</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43787</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43794</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43795</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43810</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>43811</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>43811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>43815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>43819</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43826</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43826</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43833</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>43838</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>43840</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>43843</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>43843</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>43844</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>43850</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>43857</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>43858</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>43867</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>43867</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>43871</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43872</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>43872</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>43872</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>43885</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>43886</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>43888</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>43892</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>43895</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>43896</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>43901</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>43902</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>43902</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>43902</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>43906</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>43906</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>43907</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>43907</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>43907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>43908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>43914</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>43921</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         <v>43921</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>43924</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>43930</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>43936</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>43949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>43949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>43993</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>43997</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>43999</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44007</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44020</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44025</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44030</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44030</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44040</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44041</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44042</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44042</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44047</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44048</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44050</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44053</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44054</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44056</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44057</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44062</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44062</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44064</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44067</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44067</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44069</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44069</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44083</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44083</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44099</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>44109</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
         <v>44110</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>44110</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>44110</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>44127</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         <v>44131</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17462,7 +17462,7 @@
         <v>44131</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17519,7 +17519,7 @@
         <v>44131</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44133</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>44134</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>44137</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44144</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44144</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44148</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44151</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>44162</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>44166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>44166</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44173</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44175</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>44175</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>44179</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>44182</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>44182</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44201</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44207</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>44207</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19115,7 +19115,7 @@
         <v>44212</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44217</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44217</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19286,7 +19286,7 @@
         <v>44223</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>44223</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>44224</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44225</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>44235</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44236</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44244</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>44244</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19742,7 +19742,7 @@
         <v>44244</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>44249</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19856,7 +19856,7 @@
         <v>44257</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
         <v>44258</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19970,7 +19970,7 @@
         <v>44258</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>44259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20084,7 +20084,7 @@
         <v>44264</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>44278</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20255,7 +20255,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>44286</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>44286</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>44288</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>44288</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>44290</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>44320</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>44329</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>44342</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44356</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44357</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44357</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>44357</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>44369</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>44369</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>44369</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>44375</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>44375</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44376</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>44377</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44377</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44382</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44383</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44403</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>44404</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44410</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44412</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44412</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44413</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44426</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>44426</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44426</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44427</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44432</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>44439</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>44442</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>44445</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>44452</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>44463</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>44467</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44469</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>44470</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44476</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>44476</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44482</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44483</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44494</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>44505</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44515</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>44515</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44517</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44517</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>44529</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>44529</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44529</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44532</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23990,7 +23990,7 @@
         <v>44543</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>44546</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>44551</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
         <v>44557</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>44560</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44564</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44566</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44573</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44581</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44588</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>44588</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44608</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44610</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44614</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44619</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44625</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>44627</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>44629</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>44636</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>44636</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>44636</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>44655</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>44659</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44662</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>44670</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25492,7 +25492,7 @@
         <v>44677</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25549,7 +25549,7 @@
         <v>44678</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>44683</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>44685</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>44692</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25777,7 +25777,7 @@
         <v>44692</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44700</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44705</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25953,7 +25953,7 @@
         <v>44712</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44722</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26067,7 +26067,7 @@
         <v>44740</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>44740</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44746</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>44746</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26295,7 +26295,7 @@
         <v>44774</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>44776</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>44776</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44781</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44786</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44798</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44799</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>44799</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26766,7 +26766,7 @@
         <v>44799</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44804</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44806</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44809</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44810</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44816</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44817</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44820</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44831</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44839</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>44840</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>44852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>44853</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>44860</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>44865</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>44867</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>44874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27807,7 +27807,7 @@
         <v>44879</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27864,7 +27864,7 @@
         <v>44881</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27921,7 +27921,7 @@
         <v>44881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>44881</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>44881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44883</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>44883</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>44883</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28563,7 +28563,7 @@
         <v>44896</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>44896</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28677,7 +28677,7 @@
         <v>44896</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>44899</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44900</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>44901</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44904</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>44904</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>44908</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29076,7 +29076,7 @@
         <v>44910</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29190,7 +29190,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>44916</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44918</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>44918</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>44925</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44937</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44939</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29708,7 +29708,7 @@
         <v>44951</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29765,7 +29765,7 @@
         <v>44956</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29822,7 +29822,7 @@
         <v>44958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44966</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44966</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29998,7 +29998,7 @@
         <v>44966</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30055,7 +30055,7 @@
         <v>44966</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>44966</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         <v>44970</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30283,7 +30283,7 @@
         <v>44979</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30340,7 +30340,7 @@
         <v>44980</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>44980</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44986</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>44998</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>45000</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>45008</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>45016</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45022</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45029</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45036</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45040</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45040</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>45041</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45041</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45041</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45041</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45050</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45054</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45054</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45054</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45054</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31956,7 +31956,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32070,7 +32070,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32127,7 +32127,7 @@
         <v>45069</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32184,7 +32184,7 @@
         <v>45070</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>45071</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>45071</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32355,7 +32355,7 @@
         <v>45071</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>45071</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32469,7 +32469,7 @@
         <v>45083</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32526,7 +32526,7 @@
         <v>45084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32583,7 +32583,7 @@
         <v>45084</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>45084</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32702,7 +32702,7 @@
         <v>45084</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>45085</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32816,7 +32816,7 @@
         <v>45085</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32873,7 +32873,7 @@
         <v>45090</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32930,7 +32930,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32987,7 +32987,7 @@
         <v>45090</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33044,7 +33044,7 @@
         <v>45090</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>45090</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33158,7 +33158,7 @@
         <v>45091</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>45091</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>45093</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>45104</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>45105</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>45106</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>45107</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>45107</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>45128</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>45142</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>45145</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>45149</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45152</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45152</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45155</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45161</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45162</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45167</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45188</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45189</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45197</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>45197</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>

--- a/Översikt EDA.xlsx
+++ b/Översikt EDA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y585"/>
+  <dimension ref="A1:Y586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43418</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43423</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44494</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43483</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>43418</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>44375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>43418</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44375</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44740</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44930</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43418</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44296</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44865</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43376</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43418</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>43496</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44452</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44970</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43335</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43343</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43348</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43353</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43369</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43374</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43376</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>43382</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>43387</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>43391</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43397</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>43412</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>43415</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>43418</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>43418</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>43418</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>43419</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43419</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>43426</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>43431</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>43432</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>43434</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>43439</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43442</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43442</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43442</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43451</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43452</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43468</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43474</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43475</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43475</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43502</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43509</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43510</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43517</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43535</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43539</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43542</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43543</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43544</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43550</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43551</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43551</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43552</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43554</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43570</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>43570</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>43572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>43572</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>43572</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>43573</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43584</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>43588</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43588</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>43588</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43589</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43589</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43598</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43600</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43606</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43606</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43608</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43609</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43621</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43635</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43661</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43668</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43668</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43668</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43683</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43685</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43685</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43685</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43685</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43688</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43688</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>43690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>43690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>43690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43691</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>43703</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>43703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43705</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43705</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43713</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43717</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43717</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43718</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43718</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43724</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43725</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43725</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43725</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43739</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43747</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43755</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43761</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43763</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>43763</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>43766</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43766</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43768</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43768</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43768</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43769</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>43770</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43770</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43770</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43770</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>43772</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>43774</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43777</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43777</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43784</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43784</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43787</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43789</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43790</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43794</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43795</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43810</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>43811</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>43811</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>43811</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>43815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>43819</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43826</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43826</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43833</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>43838</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>43840</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>43843</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>43843</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>43843</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>43844</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>43844</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>43850</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>43857</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>43858</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>43867</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>43867</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>43871</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43872</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>43872</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>43872</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>43885</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>43886</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>43888</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>43892</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>43895</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>43896</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>43901</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>43902</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>43902</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>43902</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>43906</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>43906</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>43907</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>43907</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>43907</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>43908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>43914</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>43921</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         <v>43921</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>43924</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>43930</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>43936</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>43949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>43949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>43985</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>43993</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>43997</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>43999</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44004</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44007</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44008</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44020</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44025</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44030</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44030</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44040</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44041</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44042</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44042</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44047</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44048</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44050</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>44053</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44054</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44056</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>44057</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44062</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44062</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44064</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44067</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44067</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44069</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44069</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44083</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44083</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44099</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>44109</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
         <v>44110</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>44110</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>44110</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>44127</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>44131</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>44131</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         <v>44131</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17462,7 +17462,7 @@
         <v>44131</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17519,7 +17519,7 @@
         <v>44131</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>44133</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44133</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>44134</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>44137</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44144</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>44144</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44148</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44151</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>44162</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>44166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>44166</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44169</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44173</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44175</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>44175</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>44179</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>44182</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>44182</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44201</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>44207</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>44207</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19115,7 +19115,7 @@
         <v>44212</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44217</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44217</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19286,7 +19286,7 @@
         <v>44223</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>44223</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>44224</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44225</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>44235</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44236</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44244</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>44244</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19742,7 +19742,7 @@
         <v>44244</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>44249</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19856,7 +19856,7 @@
         <v>44257</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
         <v>44258</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19970,7 +19970,7 @@
         <v>44258</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>44259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20084,7 +20084,7 @@
         <v>44264</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
         <v>44271</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>44278</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20255,7 +20255,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>44286</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>44286</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>44288</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>44288</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>44290</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>44320</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>44329</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>44342</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>44356</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44357</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44357</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>44357</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>44369</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>44369</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>44369</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>44375</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>44375</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>44376</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>44377</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44377</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44382</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>44383</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44403</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>44404</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44410</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44412</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44412</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44413</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44426</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>44426</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>44426</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44427</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>44432</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>44435</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22369,7 +22369,7 @@
         <v>44438</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>44439</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>44442</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>44445</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>44445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>44452</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44461</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>44463</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>44467</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>44469</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>44470</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>44476</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>44476</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44482</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44483</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44494</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>44505</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>44515</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>44515</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>44517</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44517</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>44529</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>44529</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44529</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>44532</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44538</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>44538</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23990,7 +23990,7 @@
         <v>44543</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>44546</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>44551</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
         <v>44557</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>44560</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44564</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44566</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44573</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44581</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44588</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>44588</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44608</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44610</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44614</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44614</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44619</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44625</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>44627</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>44629</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>44636</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25145,7 +25145,7 @@
         <v>44636</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25202,7 +25202,7 @@
         <v>44636</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25259,7 +25259,7 @@
         <v>44655</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25321,7 +25321,7 @@
         <v>44659</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44662</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         <v>44670</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25492,7 +25492,7 @@
         <v>44677</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25549,7 +25549,7 @@
         <v>44678</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         <v>44683</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25663,7 +25663,7 @@
         <v>44685</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25720,7 +25720,7 @@
         <v>44692</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25777,7 +25777,7 @@
         <v>44692</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44700</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44705</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25953,7 +25953,7 @@
         <v>44712</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>44722</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26067,7 +26067,7 @@
         <v>44740</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>44740</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44746</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>44746</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26295,7 +26295,7 @@
         <v>44774</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>44776</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>44776</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44781</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44786</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44798</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44799</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>44799</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26766,7 +26766,7 @@
         <v>44799</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44804</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44806</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44809</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44810</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44816</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44817</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44820</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44831</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44839</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>44840</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>44852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>44853</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>44860</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>44865</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>44867</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>44874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27807,7 +27807,7 @@
         <v>44879</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27864,7 +27864,7 @@
         <v>44881</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27921,7 +27921,7 @@
         <v>44881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>44881</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>44881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44881</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44883</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>44883</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>44883</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44893</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28563,7 +28563,7 @@
         <v>44896</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>44896</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28677,7 +28677,7 @@
         <v>44896</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>44899</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44900</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>44901</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>44904</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>44904</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>44908</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29076,7 +29076,7 @@
         <v>44910</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         <v>44911</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29190,7 +29190,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>44916</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>44917</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44918</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>44918</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>44925</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44937</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44939</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44943</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29708,7 +29708,7 @@
         <v>44951</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29765,7 +29765,7 @@
         <v>44956</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29822,7 +29822,7 @@
         <v>44958</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44966</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44966</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29998,7 +29998,7 @@
         <v>44966</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30055,7 +30055,7 @@
         <v>44966</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>44966</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>44966</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         <v>44970</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30283,7 +30283,7 @@
         <v>44979</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30340,7 +30340,7 @@
         <v>44980</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>44980</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44986</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>44998</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>45000</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>45008</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>45016</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>45021</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>45021</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45022</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>45029</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45029</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45029</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45036</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45040</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45040</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>45041</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45041</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45041</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45041</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45049</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45050</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45054</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45054</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45054</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45054</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45054</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31956,7 +31956,7 @@
         <v>45055</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32070,7 +32070,7 @@
         <v>45057</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32127,7 +32127,7 @@
         <v>45069</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32184,7 +32184,7 @@
         <v>45070</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>45071</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>45071</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32355,7 +32355,7 @@
         <v>45071</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>45071</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32469,7 +32469,7 @@
         <v>45083</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32526,7 +32526,7 @@
         <v>45084</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32583,7 +32583,7 @@
         <v>45084</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>45084</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32702,7 +32702,7 @@
         <v>45084</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>45085</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32816,7 +32816,7 @@
         <v>45085</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32873,7 +32873,7 @@
         <v>45090</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32930,7 +32930,7 @@
         <v>45090</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32987,7 +32987,7 @@
         <v>45090</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33044,7 +33044,7 @@
         <v>45090</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>45090</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33158,7 +33158,7 @@
         <v>45091</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>45091</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>45093</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>45104</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>45105</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>45106</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>45107</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>45107</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>45128</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>45139</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45140</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45140</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>45142</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>45145</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>45145</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>45149</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45152</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45152</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45155</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45161</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45162</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45167</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45188</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45189</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45197</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="R584" s="2" t="inlineStr"/>
     </row>
-    <row r="585">
+    <row r="585" ht="15" customHeight="1">
       <c r="A585" t="inlineStr">
         <is>
           <t>A 46340-2023</t>
@@ -34702,7 +34702,7 @@
         <v>45197</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34748,6 +34748,63 @@
         <v>0</v>
       </c>
       <c r="R585" s="2" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>A 47829-2023</t>
+        </is>
+      </c>
+      <c r="B586" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C586" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>EDA</t>
+        </is>
+      </c>
+      <c r="G586" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="n">
+        <v>0</v>
+      </c>
+      <c r="J586" t="n">
+        <v>0</v>
+      </c>
+      <c r="K586" t="n">
+        <v>0</v>
+      </c>
+      <c r="L586" t="n">
+        <v>0</v>
+      </c>
+      <c r="M586" t="n">
+        <v>0</v>
+      </c>
+      <c r="N586" t="n">
+        <v>0</v>
+      </c>
+      <c r="O586" t="n">
+        <v>0</v>
+      </c>
+      <c r="P586" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q586" t="n">
+        <v>0</v>
+      </c>
+      <c r="R586" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
